--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -5,22 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C9B5BC-C167-4AEC-BFE7-80399943AA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E831A-F397-4AF9-AA35-CF1213EA222F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="34185" windowHeight="15435" firstSheet="1" activeTab="7" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="11430" yWindow="345" windowWidth="13860" windowHeight="12555" firstSheet="11" activeTab="14" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
-    <sheet name="203010" sheetId="20" r:id="rId1"/>
-    <sheet name="203010_choice" sheetId="36" r:id="rId2"/>
-    <sheet name="choice1" sheetId="39" r:id="rId3"/>
-    <sheet name="choice2" sheetId="40" r:id="rId4"/>
-    <sheet name="203010_1" sheetId="37" r:id="rId5"/>
-    <sheet name="203010_2" sheetId="38" r:id="rId6"/>
-    <sheet name="203110" sheetId="41" r:id="rId7"/>
-    <sheet name="203120" sheetId="42" r:id="rId8"/>
+    <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
+    <sheet name="203010" sheetId="20" r:id="rId2"/>
+    <sheet name="choice1" sheetId="44" r:id="rId3"/>
+    <sheet name="203010_speat" sheetId="46" r:id="rId4"/>
+    <sheet name="choice2" sheetId="45" r:id="rId5"/>
+    <sheet name="203010_oun" sheetId="47" r:id="rId6"/>
+    <sheet name="203110" sheetId="50" r:id="rId7"/>
+    <sheet name="203120" sheetId="51" r:id="rId8"/>
+    <sheet name="203120_1" sheetId="53" r:id="rId9"/>
+    <sheet name="203120_1_Success" sheetId="56" r:id="rId10"/>
+    <sheet name="203120_1_Fail" sheetId="57" r:id="rId11"/>
+    <sheet name="203120_2" sheetId="54" r:id="rId12"/>
+    <sheet name="203120_2_after" sheetId="58" r:id="rId13"/>
+    <sheet name="203120_3" sheetId="55" r:id="rId14"/>
+    <sheet name="203130" sheetId="52" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,144 +81,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BAC81D27-BC36-419A-B4F1-8C8DBA9DAB70}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{56E046F2-830D-4645-98CE-DA8D52259EDB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6DD96179-2927-4BE0-BFC9-AFA0279E9B69}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{850406BF-EF40-46C1-9E2B-BDC4A592A578}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="162">
   <si>
     <t>이름</t>
   </si>
@@ -318,25 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dialogue_ep1/choice1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-  </si>
-  <si>
-    <t>dialogue_ep1/choice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>끝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,14 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오운에게 연락한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏에게 연락한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rau</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,38 +209,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이번에 친해진 친구한테 연락해볼까…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 번 스핏한테 연락해서 만나자고 해봐야 겠다..!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저번에 만났던 햄버거 가게에서 만나자고 하면 되겠지..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운이 나랑 하고 싶은 얘기가 많아 보였어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나도 뭐 겸사겸사 세모 마을에 대해 궁금한 것도 물어봐야지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>203010_choice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dialogue_ep1/203010_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep1/203010_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>choice1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,6 +230,491 @@
   </si>
   <si>
     <t>203120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏에게 만나자고 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운에게 만나자고 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/choice1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/choice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에 친해진 친구한테 연락해볼까…? 누구에게 연락하지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이터 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203010_speat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/203010_speat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/203010_oun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203010_oun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏에게 연락해봐야겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보니까 야간 알바하는 것 같은데 시간이 될련지 모르겠네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안되면 어쩔 수 없지! 연락해봐야지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운에게 연락해봐야겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 근데 지금은 학교이려나…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 끝나고 만나자고 해봐야겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(사실 스핏이 안된다고 할 줄 알았는데 괜찮다고 해서 놀랐다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(많이 피곤하지 않을까 걱정되네…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고… 힘들다…나 많이 늦었냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐 괜찮아 오느라 고생많았어! 안힘들어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸려 뒤질 것 같아…날밤새고 왔으니까….하핫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜히 나 때문에 고생하는거 아니야? 괜찮아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어차피 밥도 먹어야 했으니까 신경쓰지마.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 여기서 대충 먹을 만한거 먹고 나가자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응 알겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 와봤을 수 도 있는데 사실 부도심은 볼 게 없어서..하하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저번에 유심칩 사러 왔는데 제대로 구경은 못했었어..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 다행이다! 같이 구경이나 하자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203120_2</t>
+  </si>
+  <si>
+    <t>203120_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203120_3</t>
+  </si>
+  <si>
+    <t>뽑기 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서와요! 뽑기 5번 연속으로 성공하면 상품있어요~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 이거 진짜 오랜만이다. 여기도 똑같구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 이거 달고나라고 하는데 여기는 뽑기라고 하네?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 너네는 달고나라고 해? 차이가 있구나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어릴 때 이후로 한번도 안해봤는데 해볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 한번도 안해봤어..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗, 그럼 너가 해볼래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐 괜찮아. 처음하는데 상품따는 건 무리지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아, 그럼 내가 상품따보겠어..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오!!! 성공하셨습니다!! 축하드립니다!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와!!! 성공했어!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우와 너 진짜 잘한다!! 신기하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 상품입니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대왕! 황금잉어 엿입니다~!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우와! 진짜 크다…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 성공하셔서 상품을 가져가시는 분이 얼마 없는데 정말 대단하네요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하 감사합니다!!! 잘먹을게요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏! 이거 가져!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엥? 너가 얻은 거잖아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애초에 너한테 주고 싶었어! 자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성의는 무시하는 건 아니겠지…? 고마워! 같이 나눠 먹자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 꽤 커서 들고다니는데 시선 엄청 끌리겠다…하하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아~ 안타깝게도 실패하셨네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악!!! 쫌만 더 잘했어도…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아아…진짜 아쉽다… 그래도 잘했어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애초에 원래 성공하는 사람이 진짜 별로 없으니까 너무 상심하지마세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아, 보기보다 어려워 보이더라 하는거 보니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품사서 너 주고 싶었는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오…좀 감동인데…? 마음이라도 고맙게 받을게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 곳도 한번 구경하러 가보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스크림 상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서오세요~쫀득하고 달콤한 세모 아이스크림 먹어보세요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오! 아이스크림인데 모양이 세모나네?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오… 악명높은 세모 아이스크림이다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엥? 왜 악명이 높아???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후후… 한번 사봐…알게될 거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?그래. 저 아이스크림 2개 주세요…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네~ 알겠습니다~ 먼저 하나 주도록 할게요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여깄습니다~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와~ 맛있겠….어라?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(휙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고~ 왜 잡질 못하시나요??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(휙, 휙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런… 이래서 악명이 높았구만…내가 꼭 잡고 만다..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203120_2_after</t>
+  </si>
+  <si>
+    <t>하하하! 저의 10여년간의 실력을 우습게 보면 안되죠~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으아아아아아아아!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진정해 라우…이건 그냥 장난일 뿐이야….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고 이제 슬슬 드려야겠네… 이번엔 진짜로 드릴게요. 자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이러고 또 뺏어가려고 그러죠!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고…속고만 사셨나… 진짜 줄거에요 자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(방금까지 계속 속였잖아요…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스크림 하나 먹기 진짜 힘드네….휴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏! 여기 너것도!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워! 받느라 고생 많았다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오…! 맛있다!!! 쫀득하다!!!신기하네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노력한 뒤에 얻은 보상은 달달하죠 껄껄껄!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀 고생많이 했지만… 재밌었어요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗, 여기는!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">??여기 와봤었어?? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응! 저번에 여기 와봤다고 했잖아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기서 유심칩 샀었거든</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아~하긴 여기가 진짜 없는게 없긴해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오~원인여성분 또보네! 세모마을은 잘 구경하고 있는지??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네! 덕분에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 다행이구먼~함 구경하고 가~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아~ 즐거웠다! 덕분에 재밌었어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많이 피곤하진 않아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금…? 그래도 뭐 이정도야 괜찮아. 하루 쉬면 되니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉..! 혹시 나때문에 쉬는거 아니지..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니..뭐 차피 나도 놀고 싶었고…맨날 일만 하고 사니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오히려 연락해줘서 고마워 라우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏…감동이야...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘은 맥주를 마시면서 이런저런 도란도란 이야기를 나누었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏, 너는 꿈이 뭐야??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈?? 갑자기??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응, 그냥 궁금해졌어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음….너는 꿈이 뭔데..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 나도 아직 꿈은 없어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엥? 뭐야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하하. 그래도 좋아하는 일은 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 기계공학과로 간 이유가 기계 만지는 게 재밌어서였거든</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 아마 이 쪽으로 가지 않을까 싶어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…. 좋아하는 거라면 나는…그림그리는 걸 좋아해…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -807,11 +1108,1525 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287FF3E9-DE88-481C-8EE4-32A0CC8E7172}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="41.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B0F605-91DC-4F85-B625-36F288777449}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13AF488-B229-4962-91D0-7ED403EE7FEC}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099ACD21-63EA-480D-97F3-C5558D0EDE50}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24852A00-72DD-47E2-936F-0F4D09503E57}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7146A20D-72BA-488F-B62C-9A9E51DA7DD5}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3690E5-FB9A-46DE-BB2A-94F3617E9F5B}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD3D267-149A-4874-91EC-FEEC24D1F08D}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -876,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -890,10 +2705,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -904,10 +2719,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,188 +2763,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372202A5-F7D2-4EB0-9A56-62FE6DA0BE17}">
-  <dimension ref="A1:F9"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE01DD9-C31D-4F62-8AE7-B16A1B50BA3E}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1687F572-E18F-4827-BA13-BA7B7C1CDAF5}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1182,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1190,7 +2848,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1206,7 +2864,117 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3CCDD1-6363-43F3-BAF8-E1269A683F1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A670AA-5CD6-4800-B537-263F1D9144DD}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="39.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60EE80A-DFCA-4E2B-83B8-C692C4EA2AA1}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1215,18 +2983,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="28.75" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1279,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1287,7 +3057,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1302,27 +3072,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FE2291-7FF5-4047-A729-3813702F8942}">
-  <dimension ref="A1:E17"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923367E5-D55A-49D4-B896-6534352A0EE1}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1330,13 +3100,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1344,13 +3114,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1358,13 +3128,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1372,88 +3142,67 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4546F9C7-B4A0-4546-B435-A4949BA2CEA6}">
-  <dimension ref="A1:E17"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721F2399-C2B2-488E-AB5F-EAF0C6756577}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1461,13 +3210,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1475,13 +3224,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1489,13 +3238,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1503,13 +3252,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1517,71 +3266,134 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56C2B7C-412A-44FF-B14D-6F6571FD13F1}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB3A44B-7E99-4A16-9DC8-DC910E86BE69}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="31.25" customWidth="1"/>
-    <col min="4" max="4" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1592,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1606,7 +3418,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1620,46 +3432,78 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="4"/>
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FACB48-A5E0-47F5-9CF7-74C4C7093993}">
-  <dimension ref="A1:D7"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DDEC9A-053A-42FE-933D-CBBC6C2B64D3}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="31.25" customWidth="1"/>
-    <col min="4" max="4" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1670,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1684,7 +3528,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1698,24 +3542,137 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="4"/>
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E831A-F397-4AF9-AA35-CF1213EA222F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3EDADA-5D03-405E-B698-4167E4103926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="345" windowWidth="13860" windowHeight="12555" firstSheet="11" activeTab="14" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="19" activeTab="22" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -27,7 +27,20 @@
     <sheet name="203120_2" sheetId="54" r:id="rId12"/>
     <sheet name="203120_2_after" sheetId="58" r:id="rId13"/>
     <sheet name="203120_3" sheetId="55" r:id="rId14"/>
-    <sheet name="203130" sheetId="52" r:id="rId15"/>
+    <sheet name="203130_1" sheetId="52" r:id="rId15"/>
+    <sheet name="203130_2" sheetId="59" r:id="rId16"/>
+    <sheet name="203130_3" sheetId="60" r:id="rId17"/>
+    <sheet name="203130_4" sheetId="61" r:id="rId18"/>
+    <sheet name="204110" sheetId="62" r:id="rId19"/>
+    <sheet name="204120" sheetId="63" r:id="rId20"/>
+    <sheet name="204130_1" sheetId="64" r:id="rId21"/>
+    <sheet name="204130_2" sheetId="65" r:id="rId22"/>
+    <sheet name="204130_3" sheetId="66" r:id="rId23"/>
+    <sheet name="204130_choice" sheetId="67" r:id="rId24"/>
+    <sheet name="204130_choice1" sheetId="68" r:id="rId25"/>
+    <sheet name="204130_3_1" sheetId="70" r:id="rId26"/>
+    <sheet name="204130_choice2" sheetId="69" r:id="rId27"/>
+    <sheet name="204130_3_2" sheetId="71" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,8 +94,556 @@
 </comments>
 </file>
 
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{FDB2BD71-A357-48DE-BFB1-45106A1AEC5A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{5E270EBF-54D7-4AEE-8744-32F393BEE33E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{92A25A26-A6D7-4101-923D-F1FBEBA6DB87}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{FDF128BA-FCA0-40E7-A384-4CB77E152F71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4CCDAC47-ED97-4AAE-8705-2AD714198DEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D31D2EB7-ED8D-4D10-9F47-48412535C639}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{0BD03A28-E567-4B23-B8F0-0DD4F21CC168}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{AD8160A3-7D96-4F86-8321-EED22327D14D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A1B92BDB-3545-4F8D-819F-2EE1A24216A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{24021271-C5ED-4268-8159-EAF36213B98D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{344EE750-A6F7-4EE0-9D37-627DA48683B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4E92DE45-2719-4A5E-913C-9943110E53DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="360">
   <si>
     <t>이름</t>
   </si>
@@ -349,10 +910,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>203130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이미 와봤을 수 도 있는데 사실 부도심은 볼 게 없어서..하하</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -715,6 +1272,790 @@
   </si>
   <si>
     <t>음…. 좋아하는 거라면 나는…그림그리는 걸 좋아해…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 진짜? 뭔가 의외다..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그치? 나도 그렇게 생각해. 사실 우연히 알게 된 취미라서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엇 어떻게 알게 됐는데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니..뭐 우연히 그림 그릴 수 있는 도구가 있길래 그려 봤는데 재밌더라고…? 그래서 가끔씩 그림 그려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주로 어떤 그림으로 그려??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…사실 그림이라기 보단 그래비티긴한데, 내 감정을 표출하는 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오 멋지다…! 그래비티 보고 싶어! 나중에 보여주라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그래. 보여주는 건 어렵지 않지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 너는 그 쪽으로 갈 생각은 없어? 그림 그리는 일로 말이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가…? 에이… 내가 어떻게 그래…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 안돼! 하고 싶으면 하는 거지. 그리고 너 입으로 너가 좋아하는 일이라고 했잖아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 맞는데…그냥…할 수 있는 상황인가 싶어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경제적인 것 때문에 그런거야..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그것도 그거지만…사실 그리기 힘든 상황에 있는 것도 있어…내가 직업을 정식적으로 가지는 것에도 두려움을 가지고 있고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 내가 싶게 말할 수 없는 게 아닌 상황 같네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정확히 어떤 상황인지는 모르지만 너가 하고 싶은 것을 하지 못하는 건 좀 슬프네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그치…물론 예전의 삶보단 낫다고는 생각해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다면 다행이고.. 하지만 사람인생이라는 게 계속 변하는 거잖아. 또 더 나아질 수 있는 거고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적어도 너가 지금 상황때문에 어려운 건데, 그거를 너 탓으로 돌리지 않았으면 좋겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람이 환경에 의해 영향을 많이 받고 또 그걸 자기 마음대로 바꾸기 힘든 상황일 수 도 있잖아? 근데 그게 그 상황에 있는 사람의 탓을 하는 건 아니라고 생각해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 너도 그림을 못 그리는 이 상황이 너가 자격이 없다던가 그런 식으로 생각하진 않았으면 좋겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응…고마워....그냥 뱉은 말이었는데 되게 깊게 말해줘서 놀랐네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 내가 속상해서 그래. 하고 싶은걸 하지 못하는 사람들이 얼마나 많은데, 그게 내 옆에 있는 너라는 게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 원마을에는 그런 힘든 사람들을 지원해주는 제도 같은게 있는데 세모마을에는 없나..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 잘 몰라. 그리고 조심스러운 부분도 있고….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에고…내가 한번 찾아봐볼까…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엉…? 아니 그럴 필요는 없어.. 내가 찾아야지 내 일인데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203130_2</t>
+  </si>
+  <si>
+    <t>203130_1</t>
+  </si>
+  <si>
+    <t>앗…너한테 도움되고 싶었거든 실례였으면 미안해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐아냐. 진심으로 생각해주는 거 같아서 오히려 고맙지 내가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 아직 어리고 내 할일을 잘하고 있다고 하긴 어렵지만, 너가 맨날 낮밤바뀌면서 일하는 게 걱정되서 그래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새벽에 일하는 건 익숙해져서 괜찮아. 잘 때 자니까 너무 걱정안해도 돼.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 이렇게 날 위해서 시간 내줘서 정말 고마워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 뭐…별거도 아니고 어쩌다가 한번인데 이런 경우도. 오히려 재미없었지 않나 싶은데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 소리야! 덕분에 재밌게 놀 수 있었는데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다면 다행이네. 나도 오늘 재밌었어. 뭔가 또래랑 이렇게 맘편히 노는 것도 얼마만인가 싶네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗…혹시 따로 노는 친구는 없는 거야…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…..그렇지…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아앗….미안…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하 뭘 또 미안해, 일만하다보니까 딱히 누구랑 놀 일이 없네. 그래서 너랑 놀게 되서 좋은 거 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너가 피곤해할까봐 걱정했는데 다행이다..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀…너가 피곤한 타입이긴하지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농담이야 농담이야~ 오히려 즐거웠어. 맨날 반복되는 일상이었는데 덕분에 환기하고 좋지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203130_3</t>
+  </si>
+  <si>
+    <t>그럼 너는 앞으롸 어떻게 살아가고 싶어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…하루하루 살아가는게 일상이라 그런 생각해본적이 없네…글쎄…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 나도 그렇게 구체적으로 생각하고 있어서 물어본 건 아니긴해 그냥 궁금했거든!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 대강 나중에는 뭐하면서 살고 싶다 이런 건 있어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…일단은 노년에는 공기 좋은 숲 속에 집을 직접 지어서 반려동물들이랑 오순도순 살고 싶은 게 로망이긴해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오…나름 구체적인데? 도시는 싫어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 뭐 도시 생활이 싫은 건 아닌데, 공기 좋은 숲 속에서 여유롭게 살면서 가끔 친구들 초대해서 놀 면 좋잖아~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하긴 도시는 뭔가 정신없고 바글바글하지. 괜찮은 거 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그치! 물론 직접 집짓는 건 어렵겠지만, 뭐 어찌든 되겠지! 하핫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 너도 한 번 지금 생각해봐! 나중에 뭐하고 살고 싶은지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…갑작스러운데…흠….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 아무 걱정 없이 살 수 있었으면 좋겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금이야 일, 집, 일, 집이 일상이고 딱히 내 삶이라는 게 없기도하고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…사실 내가 숨고 지내는 상황이나 마찬가지거든</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엉??? 왜??? 뭐 때문에….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…나중에 말할 기회가 되면 말해줄게.. 그래서 아무튼 사실 맘편히 산적이 없는 거 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 어둡게 입고 다니는 이유도 티 안나려고 하는 것도 있고…새벽에 일하는 것도 마찬가지인거고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니…스핏…너가 그런 상황인 줄은 상상도 못했어…많이 힘들겠다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐…이젠 익숙해…그냥 하루하루 살아가고는 있지만, 앞으로 계속 이렇게 살고 싶진 않네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어…어…? 스핏…그렇게 말하지마….아무리 힘들어도 사람 일은 모르는 거잖아..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 맞지…물론 죽고 싶다는 말은 아니었고, 그냥 이 상황에서 벗어나고 싶은 거 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203130_4</t>
+  </si>
+  <si>
+    <t>너가 그런 상황인 줄은 상상도 못했네…얼마나 마음 고생이 심했을지 상상도 안가…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 괜찮아. 이미 익숙하거든. 하루 이틀도 아니고. 그래서 오늘이 특별한 거 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>널 처음 만난 날에 뭔가 새로운 일이 생길 것 같은 느낌이 들었는데 내 예상이 맞았네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕분에 지루한 일상에서 벗어난 기분이야. 고마워 라우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 한게 없는 걸…그래도 너가 기분 좋아졌다면 다행이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림 그릴 때 말고는 딱히 재미랄 게 없는 일상이었는데. 원마을 돌아가서도 가끔씩 놀러와.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당연하지..! 이렇게 친구 사겼는데! 맨날은 아니어도 자주 놀러 올께..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈말이면 안된다? 진짜로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈말 아니다! 나 빈말 같은 거 안해! 그리고 나랑 놀면 너가 행복해지는데 자주 놀러가야지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크크 고마워. 이제 너도 내 하나의 숨통 트이게 만드는 존재가 됐네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 말하니까 뭔가 감동이네…진짜…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 그렇고 너가 숨고 다닌다는 건…누가 도와줄 수 없는 상황인거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그나마 리나 언니한테 도움받았었어. 그래서 지금 나혼자 힘으로 살아갈 수 있는거고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 아마 앞으로 계속 이렇게 살아야할 수 도 있고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…그럼 나랑 같이 원마을 갈래…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…어? 갑자기?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 진지해. 너가 정확히 어떤 상황인지는 모르겠지만, 그래도 너가 잘못했을 거라곤 생각안해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원마을에 나름 다른 도형들도 살아가거든 다양하게. 혼혈도 많고. 그래서 적응하는데 큰 문제 없을거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어…내가 갈 수 있을지는 모르겠다.. 근데 만약 갈 수 있다면 좋긴 하겠네. 말이라도 고마워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말만 하는 거 아니야. 만약 너만 괜찮으면 나 여행 끝나고 같이 세모마을에서 나오자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…시간 늦었다. 오늘 우리 집에서 자고 갈래? 너 좀 취한 거 같아서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…그럴까…? 친구 집에서 자는 것도 좋지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누굴 우리 집에 초대하는 건 너가 처음이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 영광으로 받아드릴께~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하핫, 재밌네. 좀 좁긴한데 잘 수 있을거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204110</t>
+  </si>
+  <si>
+    <t>그렇게 밤이 되었고 둘은 스핏의 자취방에 가서 이야기를 나누며 밤을 지새우다 잠에 빠졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 숙취에 찌든 상태로 눈을 떴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하아암….피곤하다….으으으….스핏 너는….?어라?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일어났어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏은 라우가 일어나기도 전에 미리 일어나 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엇? 언제부터 일어났어? 안피곤해?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 뭐 어제 그 정도론 멀쩡하지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너…술고래구나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딱히 술을 좋아하는 건 아니야. 그냥 주량이 약하진 않은 거 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 그렇고 사실 나랑 같이 가줬으면 하는 곳이 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엇? 어디로?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 멀진 않아. 다만 가는 길이 좀 험할 수는 있어. 자 따라와.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀 길이 험하니까 조심해서 잘 따라와 알았지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼저 맨 왼쪽으로 가있는 스핏을 따라 장애물들을 넘어 가보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라오느라 고생했어. 여기서 만 잘 건너면 돼. 빠지지 않게 조심해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니…도대체 어디길래 여기 하수구 까지 들어온거야…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…군말말고 따라와 안잡아먹어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하핳…농담도 짓굳긴…알았어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204130_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204120</t>
+  </si>
+  <si>
+    <t>204130_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기야. 다왔어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉…헉….여기가 뭐길래…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 보여줄께 있어. 놀라지 마.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어엉? 여기서 갑자기 뭘 보여줄 께 있다고…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏은 철창살을 열지않고 통과하여 들어갔다가 나왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??????????????????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 아직도 취한건가? 나 꿈인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야 무슨 트릭이라도 있는거야? 어떻게 한거야…???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 내가 보여주려고 한게 이거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏은 크게 숨을 들이마셨다 내쉬면서 입을 열었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 사실 초능력을 가지게 되어서 도망칠 수 있었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…일단 들어올래…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204130_3</t>
+  </si>
+  <si>
+    <t>그래도 나 너 기절하는 줄 알았는데 멀쩡하네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….지금도 안믿겨져… 내가 몰 본건가 했어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 이거 보여주는거 너가 처음이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오…그건 영광이고 고마운데…하핫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확실히 아무한테나 보여주기 힘들 것 같긴하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그치…나도 사실 그렇게 이 능력을 자주 쓰진 않아..아니 거의 안 썻지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…너가 이 말을 해도 날 믿을 거라고 생각해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204130_choice</t>
+  </si>
+  <si>
+    <t>dialogue_ep2/204130_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204130_choice1</t>
+  </si>
+  <si>
+    <t>dialogue_ep2/204130_choice1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/204130_choice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204130_choice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼...그래서 어디로 부터 도망친 거고 아직까지도 힘들어해야되는 건데…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실…가정폭력 때문에 18살에 집에서 가출했었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 내가 가진 돈으로 홀로 살 수 있는 방법이 없더라고. 집이라도 있었으면 다행인데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 그 때 누군가가 나에게 도와주겠다면서 집도 제공해주고 돈도 준다고 하더라고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실상 집도 없고 돈도, 갈 곳도 없는 나에겐 너무나 솔깃한 말이었지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 내가 선택지가 있던 거라고 생각도 안해. 안그랬으면 굶어 죽거나 얼어죽거나였을 테니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 나는 알겠다고 하며 따라갔지. 처음에는 어른들이랑 술만 먹으면 된다고 하면서 잘해주더라고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러고 용돈으로 쓰라면서 삼촌이라고 부르라고 한 사람이 내게 큰 돈을 줬어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면서 편하게 있으라면서 방도 주더라고. 나는 그래서 좋은 사람인 줄 알았지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 다 날 이용하기 위한 거였어. 나중에는 어떤 종이를 주더니 그 전에 내게 줬던 용돈이라고 했던 돈을 달라고 하는거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거기다 방을 사용했던 비용에 이자까지 더해서 훨씬 큰 금액을 나한테 내놓으라고 하더라고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애초에 처음부터 말했으면 내가 들어오지도 않았을 거야. 이렇게 나락으로 빠질 줄 알았다면.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결국 내가 못 갚는다고 하니까 그때부터 태도가 확 바뀌더라고. 그렇게 난 원치도 않은 신체접촉을 가만히서 당해야 했어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 번은 내가 반박하니까, 그러면 돈 갚으라고, 그리고 원래 이런거 알고 들어온 거 아니냐고 하더라고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 성인이 되고 나서는…본격적으로 아예 오피스텔에 갇혀서 손님받게 돼버렸어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러다가 이게 사는 건가 싶어서 방에서 혼자 화풀이를 하다가 초능력이 발견 됐고 탈출한거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏의 말이 끝나고 스핏이 훌쩍 거리는 소리만 들리고 정적이 머물었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이에 라우는 스핏을 향해 말을 건낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너도 그렇게 살고 싶었던 게 아니었잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 선택에는 책임을 질 수 밖에 없어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m3,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/204130_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204130_3_2</t>
+  </si>
+  <si>
+    <t>dialogue_ep2/204130_3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204130_3_1</t>
+  </si>
+  <si>
+    <t>스핏...너도 그렇게 살고 싶었던 게 아니었잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 말을 하는데 너가 자책하는 것 처럼 느껴져…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 원치는 않았지만…내가 내 발로 스스로 걸어들어간 거 잖아…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 걸어들어가도록 짜여진 이 사회가 문제지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애초에 너가 집을 나오고 싶어서 나온 것도 아니잖아. 살려고 나온 거잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적어도 그런 상황에 빠진 사람들을 구조해줄 최소한의 사회적 구조망이 있어야지</t>
+  </si>
+  <si>
+    <t>아직 청소년이던 시기에 우리가 뭘 할 수 있겠어. 돈도 없고, 집도 갈데도 없고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 원치도 않게 그런 상황에 빠진 사람이 왜 잘못이라고 하는 거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 그런 사람을 보게 되면 도와줄 생각을 해야지 이용해 먹으려는 사람이 나쁜 거지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가정환경이 모두가 좋다면 좋겠지만, 그럴 수 없다면 적어도 그런 사람들이 살 수 있는 환경이라도 갖춰져야되는거잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖으로 나온 청소년을 보고. 특히 여자를 보고 그런 수단으로 이용해 먹는데도 묵인하는 사회라고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 사각지대가 있다는 건 모르면서 왜 피해자인 너가 도망쳐 다녀야해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 잘잘못을 떠나서 난 빚이 있어 라우…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애초에 선불금은 불법이야. 그걸 빌미로 말도 안되는 이자 붙여서 널 이용해 먹는거야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…! 그렇지만… 날 발견하면 가만 두지 않을거야…이 초능력이 있다해도….평생 도망 다녀야해…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 도와줄께. 저번에 우리 원마을로 돌아가자 한 말 진심이었어. 특히 너의 능력이라면. 가능할 거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우….고마워….진짜로…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너에게 말하기 진짜 잘했다…진짜 고마워…..고마워…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 고마워 날 믿고 얘기해줘서….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏...모든 선택에는 책임을 질 수 밖에 없어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아…그런 거겠지… 그냥 너한테 얘기하고 싶었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론 그 때의 시절이 끔찍했겠지만…그걸로 돈 번 거긴 하잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도망치고 나서 다행히 지금은 너가 정당한 노동의 대가를 받으면서 산다는 건 다행이라고 생각해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…하지만 아직도 난 숨어 다녀야해. 그사람들에게 아직 빚이 있단 말이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어…나도 큰 돈은 없는데….그럼 나랑 도망치자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디로…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제 말했잖아. 우리 원마을로. 거기에도 세모인들도 살아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거기가서도 내가 잘 생활할 수 있을 지 모르겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금도 도망치는 삶 속에서 잘 살고 있잖아. 잘 살 수 있을거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….생각해볼께</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +2066,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +2096,13 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -810,6 +2158,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1283,7 +2635,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1330,13 +2682,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1350,7 +2702,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -1364,29 +2716,29 @@
         <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1400,18 +2752,18 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1425,7 +2777,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1439,7 +2791,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1453,7 +2805,7 @@
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1467,7 +2819,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1481,7 +2833,7 @@
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1495,7 +2847,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +2873,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1568,13 +2920,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1588,7 +2940,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -1602,18 +2954,18 @@
         <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1627,7 +2979,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1641,7 +2993,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1655,7 +3007,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1669,7 +3021,7 @@
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +3047,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1742,13 +3094,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1762,7 +3114,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -1776,7 +3128,7 @@
         <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1790,7 +3142,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1804,7 +3156,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1818,29 +3170,29 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1854,28 +3206,28 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1889,7 +3241,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +3255,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1915,7 +3267,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1962,13 +3314,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1982,7 +3334,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -1996,18 +3348,18 @@
         <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2021,18 +3373,18 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2046,7 +3398,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2060,7 +3412,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2074,7 +3426,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2088,7 +3440,7 @@
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2102,18 +3454,18 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2127,7 +3479,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +3505,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2209,7 +3561,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2223,7 +3575,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -2237,7 +3589,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2251,7 +3603,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2265,18 +3617,18 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>140</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2290,18 +3642,18 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2311,23 +3663,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3690E5-FB9A-46DE-BB2A-94F3617E9F5B}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3690E5-FB9A-46DE-BB2A-94F3617E9F5B}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2383,7 +3735,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2397,7 +3749,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -2411,7 +3763,7 @@
         <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2425,7 +3777,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2439,7 +3791,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2453,7 +3805,7 @@
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2467,12 +3819,12 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2486,7 +3838,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2500,7 +3852,7 @@
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2514,7 +3866,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2528,7 +3880,7 @@
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2542,7 +3894,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2556,7 +3908,7 @@
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2570,7 +3922,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2584,7 +3936,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2598,7 +3950,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2612,12 +3964,1698 @@
         <v>61</v>
       </c>
       <c r="D22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43B8F24-DE80-4BD0-80DE-E84894F6B388}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E55E97-244A-4E68-8F6E-EF23BD40578F}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D087BC7-FCE0-4CA7-8288-D44E62861902}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C438B-CF27-4DC1-A8BD-65104AA75AA2}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2754,6 +5792,1787 @@
     </row>
     <row r="17" spans="5:5">
       <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55FC358-28FE-4422-9C00-DD5C708B704C}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D4C81D-2B0C-4688-8FA1-5D8D899ADC7E}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B824D30-903D-4FAA-9CFC-53AFFAAC0079}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCF49C2-6837-4246-9400-C38B3632841D}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="D28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="D29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="41.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E521A528-CCAF-4977-8123-CA6CC3C8C0C7}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52AF8F0-2AA7-4AC1-BFA0-9028896261AC}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6758B024-BCDC-4FCC-BB2E-B90F74AA333A}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CD2AAF-47ED-4B4E-BB2F-2E55BD40FEA4}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>359</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3449,7 +8268,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33">
@@ -3463,7 +8282,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -3477,7 +8296,7 @@
         <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3503,7 +8322,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3550,13 +8369,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33">
@@ -3570,7 +8389,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -3584,7 +8403,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3598,7 +8417,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3612,7 +8431,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3626,7 +8445,7 @@
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3640,7 +8459,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3654,7 +8473,7 @@
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3668,7 +8487,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3EDADA-5D03-405E-B698-4167E4103926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C35072-42D3-44F5-985D-C2D0EC6AC296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="19" activeTab="22" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -2160,10 +2160,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2463,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287FF3E9-DE88-481C-8EE4-32A0CC8E7172}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6250,7 +6246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCF49C2-6837-4246-9400-C38B3632841D}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>

--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C35072-42D3-44F5-985D-C2D0EC6AC296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E63903C-FA4C-4B1C-8F37-9DDD561DA86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="18" activeTab="27" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="357">
   <si>
     <t>이름</t>
   </si>
@@ -806,14 +806,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dialogue_ep2/choice1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/choice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이번에 친해진 친구한테 연락해볼까…? 누구에게 연락하지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1822,14 +1814,6 @@
     <t>204130_choice1</t>
   </si>
   <si>
-    <t>dialogue_ep2/204130_choice1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/204130_choice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>204130_choice2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2056,6 +2040,10 @@
   </si>
   <si>
     <t>….생각해볼께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2459,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287FF3E9-DE88-481C-8EE4-32A0CC8E7172}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2557,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2568,16 +2556,16 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2585,16 +2573,16 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2611,6 +2599,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2631,7 +2620,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2642,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -2670,7 +2659,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2678,13 +2667,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2698,43 +2687,43 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2748,18 +2737,18 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2773,7 +2762,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2787,21 +2776,21 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2815,35 +2804,35 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +2858,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2880,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -2908,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2916,13 +2905,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2936,46 +2925,46 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2989,35 +2978,35 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3043,7 +3032,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3054,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3082,7 +3071,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3090,13 +3079,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3110,21 +3099,21 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3138,21 +3127,21 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3166,29 +3155,29 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3202,28 +3191,28 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3237,7 +3226,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3263,7 +3252,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3274,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3302,7 +3291,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3310,13 +3299,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3330,32 +3319,32 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3369,32 +3358,32 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3408,7 +3397,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3422,21 +3411,21 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3450,18 +3439,18 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3475,7 +3464,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3501,7 +3490,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3512,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3540,7 +3529,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3557,21 +3546,21 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -3585,7 +3574,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3599,32 +3588,32 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3638,18 +3627,18 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3675,7 +3664,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3686,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3714,7 +3703,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3731,7 +3720,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3745,21 +3734,21 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3773,35 +3762,35 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3815,12 +3804,12 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3834,21 +3823,21 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3862,21 +3851,21 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3890,21 +3879,21 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3918,7 +3907,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3932,7 +3921,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3946,21 +3935,21 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3974,21 +3963,21 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4002,21 +3991,21 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4030,21 +4019,21 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4058,21 +4047,21 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4086,21 +4075,21 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4114,21 +4103,21 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4142,21 +4131,21 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4170,21 +4159,21 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4212,7 +4201,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4223,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4251,7 +4240,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4268,21 +4257,21 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -4296,7 +4285,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4310,7 +4299,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4324,7 +4313,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4338,21 +4327,21 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4366,7 +4355,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4380,21 +4369,21 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4408,21 +4397,21 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4436,21 +4425,21 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4464,21 +4453,21 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4492,21 +4481,21 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4520,21 +4509,21 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4548,21 +4537,21 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4576,21 +4565,21 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4604,21 +4593,21 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4632,21 +4621,21 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4674,7 +4663,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4685,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4713,7 +4702,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4730,21 +4719,21 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -4758,21 +4747,21 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4786,21 +4775,21 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4814,21 +4803,21 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4842,7 +4831,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4856,63 +4845,63 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4926,35 +4915,35 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4968,21 +4957,21 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4996,21 +4985,21 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5038,7 +5027,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5049,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5077,7 +5066,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5094,49 +5083,49 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5150,21 +5139,21 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5178,21 +5167,21 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5206,21 +5195,21 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5234,7 +5223,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5248,35 +5237,35 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5290,21 +5279,21 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5318,7 +5307,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5332,21 +5321,21 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5360,21 +5349,21 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5388,21 +5377,21 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5416,21 +5405,21 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5438,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5466,7 +5455,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5477,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5505,7 +5494,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5513,7 +5502,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5527,26 +5516,26 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5560,21 +5549,21 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5588,35 +5577,35 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5630,21 +5619,21 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5756,7 +5745,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5814,7 +5803,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5825,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5853,7 +5842,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5861,16 +5850,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5884,7 +5873,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1"/>
@@ -5913,7 +5902,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5924,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5952,7 +5941,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5960,16 +5949,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5983,21 +5972,21 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6011,7 +6000,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6039,7 +6028,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6050,7 +6039,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6078,7 +6067,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6086,16 +6075,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6109,21 +6098,21 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6137,12 +6126,12 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6156,7 +6145,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6170,7 +6159,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6184,54 +6173,54 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -6259,7 +6248,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6270,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6298,7 +6287,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6306,16 +6295,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6329,21 +6318,21 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6357,7 +6346,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6371,21 +6360,21 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6399,241 +6388,241 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="D28" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="D29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -6649,7 +6638,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6661,7 +6650,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -6735,7 +6724,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6743,7 +6732,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -6754,36 +6743,36 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>321</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>300</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6809,7 +6798,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6822,7 +6811,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -6878,10 +6867,10 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6921,7 +6910,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6932,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6960,7 +6949,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6977,7 +6966,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6991,21 +6980,21 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7019,7 +7008,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7033,7 +7022,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7047,7 +7036,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7061,7 +7050,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7075,7 +7064,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7089,21 +7078,21 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7117,7 +7106,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7131,7 +7120,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7145,21 +7134,21 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7173,21 +7162,21 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7201,35 +7190,35 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7243,7 +7232,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -7259,7 +7248,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7272,7 +7261,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -7328,10 +7317,10 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7358,7 +7347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CD2AAF-47ED-4B4E-BB2F-2E55BD40FEA4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -7371,7 +7360,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7382,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7410,7 +7399,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7427,21 +7416,21 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -7455,7 +7444,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7469,21 +7458,21 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7497,21 +7486,21 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7525,21 +7514,21 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7553,21 +7542,21 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7583,7 +7572,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7652,10 +7641,10 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7695,7 +7684,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7706,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7734,7 +7723,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7751,7 +7740,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33">
@@ -7765,7 +7754,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7779,7 +7768,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -7793,7 +7782,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7861,10 +7850,10 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7904,7 +7893,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7915,7 +7904,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7943,7 +7932,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7960,7 +7949,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7974,7 +7963,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -7988,7 +7977,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -8025,7 +8014,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8053,7 +8042,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8070,7 +8059,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8084,21 +8073,21 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8112,21 +8101,21 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8140,35 +8129,35 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8182,7 +8171,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -8219,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8247,7 +8236,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8255,16 +8244,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33">
@@ -8278,21 +8267,21 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8307,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8329,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8357,7 +8346,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8365,13 +8354,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33">
@@ -8385,7 +8374,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8399,21 +8388,21 @@
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8427,21 +8416,21 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8455,21 +8444,21 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8483,7 +8472,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E63903C-FA4C-4B1C-8F37-9DDD561DA86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B41BE1-8F6B-4989-8292-8FE71CBE3AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="18" activeTab="27" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="19" activeTab="23" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -63,11 +63,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>훠이</author>
+    <author>최선</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{370B9A26-3BD6-4AD8-BCD9-2A6F57F4E96C}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{7B050301-BCF2-4AD8-9A44-E817250DFCD4}">
       <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: NONE 
+1: ANIMATION 
+2: DIALOGUE
+3:TEMP(</t>
+        </r>
         <r>
           <rPr>
             <b/>
@@ -76,6 +89,108 @@
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+4:TEMPEND
+5:TaskReset(Task</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+6: NEW(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새로운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Task)
+7:THEEND(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>엔딩</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+8:TempDialogueEnd</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4E92DE45-2719-4A5E-913C-9943110E53DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>0: Idle
 1: Laugh
@@ -94,7 +209,7 @@
 </comments>
 </file>
 
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -127,13 +242,120 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{5E270EBF-54D7-4AEE-8744-32F393BEE33E}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{133EF4BD-3CFA-4BB5-B9F7-A59AB0E7C43A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: NONE 
+1: ANIMATION 
+2: DIALOGUE
+3:TEMP(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+4:TEMPEND
+5:TaskReset(Task</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+6: NEW(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새로운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Task)
+7:THEEND(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>엔딩</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+8:TempDialogueEnd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{5E270EBF-54D7-4AEE-8744-32F393BEE33E}">
       <text>
         <r>
           <rPr>
@@ -312,7 +534,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -345,7 +567,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -384,6 +606,40 @@
     <author>훠이</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{370B9A26-3BD6-4AD8-BCD9-2A6F57F4E96C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4CCDAC47-ED97-4AAE-8705-2AD714198DEA}">
       <text>
         <r>
@@ -411,7 +667,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -444,7 +700,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -477,7 +733,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -510,7 +766,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -543,7 +799,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -576,7 +832,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -609,41 +865,8 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4E92DE45-2719-4A5E-913C-9943110E53DD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="359">
   <si>
     <t>이름</t>
   </si>
@@ -2044,6 +2267,14 @@
   </si>
   <si>
     <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/204130_choice1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/204130_choice2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2444,18 +2675,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287FF3E9-DE88-481C-8EE4-32A0CC8E7172}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287FF3E9-DE88-481C-8EE4-32A0CC8E7172}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="41.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2561,6 +2792,9 @@
       <c r="C7" t="s">
         <v>47</v>
       </c>
+      <c r="D7">
+        <v>203110</v>
+      </c>
       <c r="E7" t="s">
         <v>356</v>
       </c>
@@ -2578,6 +2812,9 @@
       <c r="C8" t="s">
         <v>48</v>
       </c>
+      <c r="D8">
+        <v>203210</v>
+      </c>
       <c r="E8" t="s">
         <v>356</v>
       </c>
@@ -2590,7 +2827,7 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2600,6 +2837,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2611,11 +2849,11 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2849,11 +3087,11 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3023,11 +3261,11 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3243,11 +3481,11 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3481,11 +3719,11 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3655,11 +3893,11 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4192,11 +4430,11 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4654,11 +4892,11 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5018,11 +5256,11 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5446,11 +5684,11 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5652,11 +5890,11 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5794,11 +6032,11 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5893,11 +6131,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6019,11 +6257,11 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6236,14 +6474,14 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6637,15 +6875,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="41.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6746,10 +6984,10 @@
         <v>317</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -6763,10 +7001,10 @@
         <v>318</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -6780,7 +7018,7 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6801,11 +7039,11 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.08203125" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6901,11 +7139,11 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7251,11 +7489,11 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.08203125" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7347,15 +7585,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CD2AAF-47ED-4B4E-BB2F-2E55BD40FEA4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7575,10 +7813,10 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
@@ -7675,11 +7913,11 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7743,7 +7981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7785,11 +8023,11 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="22.08203125" customWidth="1"/>
+    <col min="2" max="2" width="23.08203125" customWidth="1"/>
+    <col min="3" max="3" width="29.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7884,11 +8122,11 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7994,11 +8232,11 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8188,11 +8426,11 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8256,7 +8494,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8298,11 +8536,11 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8363,7 +8601,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>7</v>
       </c>

--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B41BE1-8F6B-4989-8292-8FE71CBE3AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875B36E8-01CE-4D42-978A-C356C04E6D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="19" activeTab="23" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="10" activeTab="18" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -5680,8 +5680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C438B-CF27-4DC1-A8BD-65104AA75AA2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -6875,7 +6875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -8119,7 +8119,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -8229,7 +8229,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875B36E8-01CE-4D42-978A-C356C04E6D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BB29FB-C011-4755-9737-7722F5C72055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="10" activeTab="18" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="19" activeTab="27" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -540,6 +540,191 @@
     <author>훠이</author>
   </authors>
   <commentList>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{ACCDF186-1CDB-4AC7-9525-F3E9D78444EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{92A25A26-A6D7-4101-923D-F1FBEBA6DB87}">
       <text>
         <r>
@@ -567,7 +752,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -866,7 +1051,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="359">
   <si>
     <t>이름</t>
   </si>
@@ -5252,7 +5437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D087BC7-FCE0-4CA7-8288-D44E62861902}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -5680,7 +5865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C438B-CF27-4DC1-A8BD-65104AA75AA2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
@@ -6876,7 +7061,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -7032,11 +7217,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E521A528-CCAF-4977-8123-CA6CC3C8C0C7}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E521A528-CCAF-4977-8123-CA6CC3C8C0C7}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -7044,10 +7229,10 @@
     <col min="1" max="1" width="16.08203125" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.08203125" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>297</v>
       </c>
@@ -7057,8 +7242,14 @@
       <c r="D1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -7071,8 +7262,14 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -7085,8 +7282,14 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -7100,7 +7303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -7114,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -7128,6 +7331,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7585,8 +7789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CD2AAF-47ED-4B4E-BB2F-2E55BD40FEA4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BB29FB-C011-4755-9737-7722F5C72055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E81919B-F33C-439D-8997-2D566E09E5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="19" activeTab="27" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="6" activeTab="10" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
     <sheet name="203010" sheetId="20" r:id="rId2"/>
-    <sheet name="choice1" sheetId="44" r:id="rId3"/>
-    <sheet name="203010_speat" sheetId="46" r:id="rId4"/>
-    <sheet name="choice2" sheetId="45" r:id="rId5"/>
-    <sheet name="203010_oun" sheetId="47" r:id="rId6"/>
-    <sheet name="203110" sheetId="50" r:id="rId7"/>
-    <sheet name="203120" sheetId="51" r:id="rId8"/>
-    <sheet name="203120_1" sheetId="53" r:id="rId9"/>
-    <sheet name="203120_1_Success" sheetId="56" r:id="rId10"/>
-    <sheet name="203120_1_Fail" sheetId="57" r:id="rId11"/>
+    <sheet name="203010_speat" sheetId="46" r:id="rId3"/>
+    <sheet name="203010_oun" sheetId="47" r:id="rId4"/>
+    <sheet name="203110" sheetId="50" r:id="rId5"/>
+    <sheet name="203120" sheetId="51" r:id="rId6"/>
+    <sheet name="203120_1" sheetId="53" r:id="rId7"/>
+    <sheet name="203120_1_task" sheetId="72" r:id="rId8"/>
+    <sheet name="203120_1_Success" sheetId="56" r:id="rId9"/>
+    <sheet name="203120_1_Fail" sheetId="57" r:id="rId10"/>
+    <sheet name="203120_2_task" sheetId="73" r:id="rId11"/>
     <sheet name="203120_2" sheetId="54" r:id="rId12"/>
     <sheet name="203120_2_after" sheetId="58" r:id="rId13"/>
     <sheet name="203120_3" sheetId="55" r:id="rId14"/>
@@ -76,22 +76,29 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0: NONE 
-1: ANIMATION 
-2: DIALOGUE
-3:TEMP(</t>
+          <t>NONE = 0
+ANIMATION = 1 DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4 TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8 TempDialogueEnd = 9
+Cinematic = 10</t>
         </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{24021271-C5ED-4268-8159-EAF36213B98D}">
+      <text>
         <r>
           <rPr>
             <b/>
@@ -100,21 +107,31 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>)
-4:TEMPEND
-5:TaskReset(Task</t>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>종료</t>
-        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{344EE750-A6F7-4EE0-9D37-627DA48683B0}">
+      <text>
         <r>
           <rPr>
             <b/>
@@ -123,52 +140,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>)
-6: NEW(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>새로운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Task)
-7:THEEND(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>엔딩</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-8:TempDialogueEnd</t>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -176,7 +157,7 @@
 </comments>
 </file>
 
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -209,7 +190,7 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -242,7 +223,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -259,99 +240,14 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0: NONE 
-1: ANIMATION 
-2: DIALOGUE
-3:TEMP(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-4:TEMPEND
-5:TaskReset(Task</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>종료</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-6: NEW(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>새로운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Task)
-7:THEEND(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>엔딩</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-8:TempDialogueEnd</t>
+          <t>NONE = 0
+ANIMATION = 1 DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4 TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8 TempDialogueEnd = 9
+Cinematic = 10</t>
         </r>
       </text>
     </comment>
@@ -534,7 +430,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -719,7 +615,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -752,7 +648,7 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -822,6 +718,68 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{67077DB0-C738-4E73-A0AF-F9A713DF8807}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1 DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4 TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8 TempDialogueEnd = 9
+Cinematic = 10</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E84691A2-867D-40FB-A49F-554B028EBF12}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1 DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4 TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8 TempDialogueEnd = 9
+Cinematic = 10</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>훠이</author>
   </authors>
   <commentList>
@@ -852,7 +810,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -885,7 +843,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -918,7 +876,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -951,7 +909,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -984,74 +942,8 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{24021271-C5ED-4268-8159-EAF36213B98D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{344EE750-A6F7-4EE0-9D37-627DA48683B0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="369">
   <si>
     <t>이름</t>
   </si>
@@ -1182,18 +1074,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>choice1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>choice의 경우 +값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>choice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>203110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2460,6 +2344,50 @@
   </si>
   <si>
     <t>dialogue_ep2/204130_choice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘은 스핏을 보기로 했다!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203120_1_Success</t>
+  </si>
+  <si>
+    <t>203120_1_Fail</t>
+  </si>
+  <si>
+    <t>203120_1_task</t>
+  </si>
+  <si>
+    <t>Dalgona Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/203120_1_Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/203120_1_Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/203120_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203120_2_task</t>
+  </si>
+  <si>
+    <t>dialogue_ep2/203120_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceCream Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/203120_2_after</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2864,7 +2792,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2969,42 +2897,42 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>203110</v>
       </c>
       <c r="E7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>203210</v>
       </c>
       <c r="E8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3027,12 +2955,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B0F605-91DC-4F85-B625-36F288777449}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13AF488-B229-4962-91D0-7ED403EE7FEC}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
@@ -3043,7 +2969,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3054,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3082,7 +3008,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3090,13 +3016,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3104,49 +3030,52 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3154,108 +3083,41 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3265,176 +3127,122 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13AF488-B229-4962-91D0-7ED403EE7FEC}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72847EAD-B753-4472-896A-A550A32270AB}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="41.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11">
+        <v>367</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
+      <c r="E6" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3455,7 +3263,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3466,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3494,7 +3302,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3502,13 +3310,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3522,21 +3330,21 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3550,21 +3358,21 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3578,29 +3386,29 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3614,28 +3422,28 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3649,7 +3457,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3675,7 +3483,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3686,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3714,7 +3522,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3722,13 +3530,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3742,32 +3550,32 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3781,32 +3589,32 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3820,7 +3628,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3834,21 +3642,21 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3862,18 +3670,18 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3887,7 +3695,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3913,7 +3721,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3924,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3952,7 +3760,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3969,21 +3777,21 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -3997,7 +3805,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4011,32 +3819,32 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4050,18 +3858,18 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4075,7 +3883,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4087,7 +3895,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4098,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4126,7 +3934,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4143,7 +3951,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4157,21 +3965,21 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4185,35 +3993,35 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4227,12 +4035,12 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4246,21 +4054,21 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4274,21 +4082,21 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4302,21 +4110,21 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4330,7 +4138,7 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4344,7 +4152,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4358,21 +4166,21 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4386,21 +4194,21 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4414,21 +4222,21 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4442,21 +4250,21 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4470,21 +4278,21 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4498,21 +4306,21 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4526,21 +4334,21 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4554,21 +4362,21 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4582,21 +4390,21 @@
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4624,7 +4432,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4635,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4663,7 +4471,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4680,21 +4488,21 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -4708,7 +4516,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4722,7 +4530,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4736,7 +4544,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4750,21 +4558,21 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4778,7 +4586,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4792,21 +4600,21 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4820,21 +4628,21 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4848,21 +4656,21 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4876,21 +4684,21 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4904,21 +4712,21 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4932,21 +4740,21 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4960,21 +4768,21 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4988,21 +4796,21 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5016,21 +4824,21 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5044,21 +4852,21 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5086,7 +4894,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5097,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5125,7 +4933,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5142,21 +4950,21 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -5170,21 +4978,21 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5198,21 +5006,21 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5226,21 +5034,21 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5254,7 +5062,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5268,63 +5076,63 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5338,35 +5146,35 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5380,21 +5188,21 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5408,21 +5216,21 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5437,7 +5245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D087BC7-FCE0-4CA7-8288-D44E62861902}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -5450,7 +5258,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5461,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5489,7 +5297,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5506,49 +5314,49 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5562,21 +5370,21 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5590,21 +5398,21 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5618,21 +5426,21 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5646,7 +5454,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5660,35 +5468,35 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5702,21 +5510,21 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5730,7 +5538,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5744,21 +5552,21 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5772,21 +5580,21 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5800,21 +5608,21 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5828,21 +5636,21 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5850,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5878,7 +5686,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5889,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5917,7 +5725,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5925,7 +5733,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5939,26 +5747,26 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5972,21 +5780,21 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6000,35 +5808,35 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6042,21 +5850,21 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -6168,7 +5976,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6226,7 +6034,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6237,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6265,7 +6073,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6273,16 +6081,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6296,7 +6104,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1"/>
@@ -6325,7 +6133,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6336,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6364,7 +6172,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6372,16 +6180,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6395,21 +6203,21 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6423,7 +6231,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -6451,7 +6259,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6462,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6490,7 +6298,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6498,16 +6306,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6521,21 +6329,21 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6549,12 +6357,12 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6568,7 +6376,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6582,7 +6390,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6596,54 +6404,54 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -6671,7 +6479,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6682,7 +6490,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6710,7 +6518,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6718,16 +6526,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6741,21 +6549,21 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6769,7 +6577,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6783,21 +6591,21 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6811,241 +6619,241 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="D28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="D29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -7061,7 +6869,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -7073,7 +6881,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -7147,7 +6955,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7166,36 +6974,36 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7234,13 +7042,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -7311,7 +7119,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7352,7 +7160,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7363,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7391,7 +7199,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7408,7 +7216,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7422,21 +7230,21 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7450,7 +7258,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7464,7 +7272,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7478,7 +7286,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7492,7 +7300,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7506,7 +7314,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7520,21 +7328,21 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7548,7 +7356,7 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7562,7 +7370,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7576,21 +7384,21 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7604,21 +7412,21 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7632,35 +7440,35 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7674,7 +7482,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -7690,7 +7498,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -7703,13 +7511,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7762,7 +7570,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7782,6 +7590,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7789,7 +7598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CD2AAF-47ED-4B4E-BB2F-2E55BD40FEA4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -7802,7 +7611,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7813,7 +7622,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7841,7 +7650,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7858,21 +7667,21 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -7886,7 +7695,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7900,21 +7709,21 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7928,21 +7737,21 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7956,21 +7765,21 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7984,21 +7793,21 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -8010,106 +7819,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE01DD9-C31D-4F62-8AE7-B16A1B50BA3E}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="16.08203125" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A670AA-5CD6-4800-B537-263F1D9144DD}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -8126,7 +7835,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8137,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8165,7 +7874,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8182,7 +7891,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34">
@@ -8196,7 +7905,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8210,7 +7919,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -8219,106 +7928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60EE80A-DFCA-4E2B-83B8-C692C4EA2AA1}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="22.08203125" customWidth="1"/>
-    <col min="2" max="2" width="23.08203125" customWidth="1"/>
-    <col min="3" max="3" width="29.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923367E5-D55A-49D4-B896-6534352A0EE1}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -8335,7 +7945,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8346,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8374,7 +7984,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8391,7 +8001,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8405,7 +8015,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8419,7 +8029,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -8428,12 +8038,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721F2399-C2B2-488E-AB5F-EAF0C6756577}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -8445,7 +8055,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8456,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8484,7 +8094,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8500,8 +8110,8 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>56</v>
+      <c r="D5" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8514,120 +8124,135 @@
       <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>57</v>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
         <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB3A44B-7E99-4A16-9DC8-DC910E86BE69}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -8639,7 +8264,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8650,7 +8275,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8678,7 +8303,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8686,16 +8311,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34">
@@ -8709,21 +8334,21 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -8732,12 +8357,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DDEC9A-053A-42FE-933D-CBBC6C2B64D3}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -8749,7 +8374,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8760,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8788,7 +8413,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8796,13 +8421,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34">
@@ -8816,7 +8441,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8830,21 +8455,21 @@
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8858,21 +8483,21 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8886,21 +8511,21 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8914,7 +8539,368 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974070FC-5719-4468-BBEA-5A9091DC4181}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="41.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B0F605-91DC-4F85-B625-36F288777449}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E81919B-F33C-439D-8997-2D566E09E5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE87FBBD-9EF8-43E0-9C3D-E50EC9C54B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="6" activeTab="10" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -943,7 +943,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="369">
   <si>
     <t>이름</t>
   </si>
@@ -1026,10 +1026,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nextFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2389,6 +2385,9 @@
   <si>
     <t>dialogue_ep2/203120_2_after</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskContentType</t>
   </si>
 </sst>
 </file>
@@ -2789,22 +2788,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287FF3E9-DE88-481C-8EE4-32A0CC8E7172}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="A9" sqref="A9:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="1" max="1" width="41.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -2855,30 +2854,30 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2897,53 +2896,42 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>203110</v>
       </c>
       <c r="E7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>203210</v>
       </c>
       <c r="E8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2960,16 +2948,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2980,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3008,7 +2996,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3016,13 +3004,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3033,49 +3021,49 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3086,38 +3074,38 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3130,21 +3118,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72847EAD-B753-4472-896A-A550A32270AB}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="41.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -3195,30 +3183,30 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3229,13 +3217,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3254,16 +3242,16 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3274,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3302,7 +3290,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3310,13 +3298,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3327,24 +3315,24 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3355,24 +3343,24 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3383,32 +3371,32 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3419,31 +3407,31 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3454,10 +3442,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3474,16 +3462,16 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3494,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3522,7 +3510,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3530,13 +3518,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3547,35 +3535,35 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3586,35 +3574,35 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3625,10 +3613,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3639,24 +3627,24 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3667,21 +3655,21 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3692,10 +3680,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3712,16 +3700,16 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3732,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3760,7 +3748,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3774,24 +3762,24 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -3802,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3816,35 +3804,35 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>135</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3855,21 +3843,21 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3886,16 +3874,16 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3906,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3934,7 +3922,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3948,10 +3936,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3962,24 +3950,24 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3990,38 +3978,38 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4032,15 +4020,15 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4051,24 +4039,24 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4079,24 +4067,24 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4107,24 +4095,24 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4135,10 +4123,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4149,10 +4137,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4163,24 +4151,24 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4191,24 +4179,24 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4219,24 +4207,24 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4247,24 +4235,24 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4275,24 +4263,24 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4303,24 +4291,24 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4331,24 +4319,24 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4359,24 +4347,24 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4387,24 +4375,24 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4423,16 +4411,16 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4443,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4471,7 +4459,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4485,24 +4473,24 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -4513,10 +4501,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4527,10 +4515,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4541,10 +4529,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4555,24 +4543,24 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4583,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4597,24 +4585,24 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4625,24 +4613,24 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4653,24 +4641,24 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4681,24 +4669,24 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4709,24 +4697,24 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4737,24 +4725,24 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4765,24 +4753,24 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4793,24 +4781,24 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4821,24 +4809,24 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4849,24 +4837,24 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4885,16 +4873,16 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4905,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4933,7 +4921,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4947,24 +4935,24 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -4975,24 +4963,24 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5003,24 +4991,24 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5031,24 +5019,24 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5059,10 +5047,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5073,66 +5061,66 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5143,38 +5131,38 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5185,24 +5173,24 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5213,24 +5201,24 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5249,16 +5237,16 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5269,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5297,7 +5285,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5311,52 +5299,52 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5367,24 +5355,24 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5395,24 +5383,24 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5423,24 +5411,24 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5451,10 +5439,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5465,38 +5453,38 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5507,24 +5495,24 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5535,10 +5523,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5549,24 +5537,24 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5577,24 +5565,24 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5605,24 +5593,24 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5633,24 +5621,24 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5658,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -5677,16 +5665,16 @@
       <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5697,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5725,7 +5713,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5733,7 +5721,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5744,29 +5732,29 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5777,24 +5765,24 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5805,38 +5793,38 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5847,24 +5835,24 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5883,11 +5871,11 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.58203125" customWidth="1"/>
-    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5945,10 +5933,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5959,10 +5947,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5973,10 +5961,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6025,16 +6013,16 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6045,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6073,7 +6061,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6081,16 +6069,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6101,10 +6089,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1"/>
@@ -6124,16 +6112,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6144,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6172,7 +6160,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6180,16 +6168,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6200,24 +6188,24 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6228,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -6250,16 +6238,16 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6270,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6298,7 +6286,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6306,16 +6294,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6326,24 +6314,24 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6354,15 +6342,15 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6373,10 +6361,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6387,10 +6375,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6401,57 +6389,57 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6470,16 +6458,16 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6490,7 +6478,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6518,7 +6506,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6526,16 +6514,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6546,24 +6534,24 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6574,10 +6562,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6588,24 +6576,24 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6616,244 +6604,244 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="D28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="D29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -6869,19 +6857,19 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="1" max="1" width="41.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -6932,30 +6920,30 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6974,41 +6962,41 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -7029,26 +7017,26 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.08203125" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -7091,10 +7079,10 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7102,24 +7090,24 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7127,7 +7115,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -7151,16 +7139,16 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7171,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7199,7 +7187,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7213,10 +7201,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7227,24 +7215,24 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7255,10 +7243,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7269,10 +7257,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7283,10 +7271,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7297,10 +7285,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7311,10 +7299,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7325,24 +7313,24 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7353,10 +7341,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7367,10 +7355,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7381,24 +7369,24 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7409,24 +7397,24 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7437,38 +7425,38 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7479,10 +7467,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -7498,26 +7486,26 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.08203125" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7553,24 +7541,24 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7578,7 +7566,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -7602,16 +7590,16 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="88.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7622,7 +7610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7650,7 +7638,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7664,24 +7652,24 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -7692,10 +7680,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7706,24 +7694,24 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7734,24 +7722,24 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7762,24 +7750,24 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7790,24 +7778,24 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7826,16 +7814,16 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="39.08203125" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7846,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7874,7 +7862,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7888,13 +7876,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7902,10 +7890,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7916,10 +7904,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -7936,16 +7924,16 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7956,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7984,7 +7972,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7998,10 +7986,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8012,10 +8000,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8026,10 +8014,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -8046,16 +8034,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8066,7 +8054,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8094,7 +8082,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8108,10 +8096,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8122,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8136,24 +8124,24 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8164,24 +8152,24 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8192,38 +8180,38 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8234,10 +8222,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -8255,16 +8243,16 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8275,7 +8263,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8303,7 +8291,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8311,44 +8299,44 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -8365,16 +8353,16 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8385,7 +8373,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8413,7 +8401,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8421,16 +8409,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
+    </row>
+    <row r="6" spans="1:4" ht="33">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8438,10 +8426,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8452,24 +8440,24 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8480,24 +8468,24 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8508,24 +8496,24 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8536,10 +8524,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -8553,20 +8541,20 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="41.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -8617,30 +8605,30 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -8651,16 +8639,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" t="s">
         <v>362</v>
-      </c>
-      <c r="F6" t="s">
-        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -8675,20 +8663,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B0F605-91DC-4F85-B625-36F288777449}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8699,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8727,7 +8715,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8735,13 +8723,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8752,46 +8740,46 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8802,21 +8790,21 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8827,10 +8815,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8841,24 +8829,24 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8869,38 +8857,38 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE87FBBD-9EF8-43E0-9C3D-E50EC9C54B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B664D7-A123-4730-85AD-43720A282EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="3912" yWindow="408" windowWidth="17280" windowHeight="9420" firstSheet="23" activeTab="23" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -37,10 +37,8 @@
     <sheet name="204130_2" sheetId="65" r:id="rId22"/>
     <sheet name="204130_3" sheetId="66" r:id="rId23"/>
     <sheet name="204130_choice" sheetId="67" r:id="rId24"/>
-    <sheet name="204130_choice1" sheetId="68" r:id="rId25"/>
-    <sheet name="204130_3_1" sheetId="70" r:id="rId26"/>
-    <sheet name="204130_choice2" sheetId="69" r:id="rId27"/>
-    <sheet name="204130_3_2" sheetId="71" r:id="rId28"/>
+    <sheet name="204130_3_1" sheetId="70" r:id="rId25"/>
+    <sheet name="204130_3_2" sheetId="71" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -436,191 +434,6 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{ACCDF186-1CDB-4AC7-9525-F3E9D78444EB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{92A25A26-A6D7-4101-923D-F1FBEBA6DB87}">
       <text>
         <r>
@@ -648,7 +461,7 @@
 </comments>
 </file>
 
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -943,7 +756,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="363">
   <si>
     <t>이름</t>
   </si>
@@ -1046,10 +859,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>끝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dialogue_ep2/203010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1070,10 +879,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>choice의 경우 +값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>203110</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2099,13 +1904,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>204130_choice1</t>
-  </si>
-  <si>
-    <t>204130_choice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아무튼...그래서 어디로 부터 도망친 거고 아직까지도 힘들어해야되는 건데…?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2194,200 +1992,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>204130_3_2</t>
+  </si>
+  <si>
+    <t>스핏...너도 그렇게 살고 싶었던 게 아니었잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 말을 하는데 너가 자책하는 것 처럼 느껴져…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 원치는 않았지만…내가 내 발로 스스로 걸어들어간 거 잖아…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 걸어들어가도록 짜여진 이 사회가 문제지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애초에 너가 집을 나오고 싶어서 나온 것도 아니잖아. 살려고 나온 거잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적어도 그런 상황에 빠진 사람들을 구조해줄 최소한의 사회적 구조망이 있어야지</t>
+  </si>
+  <si>
+    <t>아직 청소년이던 시기에 우리가 뭘 할 수 있겠어. 돈도 없고, 집도 갈데도 없고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 원치도 않게 그런 상황에 빠진 사람이 왜 잘못이라고 하는 거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 그런 사람을 보게 되면 도와줄 생각을 해야지 이용해 먹으려는 사람이 나쁜 거지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가정환경이 모두가 좋다면 좋겠지만, 그럴 수 없다면 적어도 그런 사람들이 살 수 있는 환경이라도 갖춰져야되는거잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밖으로 나온 청소년을 보고. 특히 여자를 보고 그런 수단으로 이용해 먹는데도 묵인하는 사회라고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 사각지대가 있다는 건 모르면서 왜 피해자인 너가 도망쳐 다녀야해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 잘잘못을 떠나서 난 빚이 있어 라우…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애초에 선불금은 불법이야. 그걸 빌미로 말도 안되는 이자 붙여서 널 이용해 먹는거야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…! 그렇지만… 날 발견하면 가만 두지 않을거야…이 초능력이 있다해도….평생 도망 다녀야해…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 도와줄께. 저번에 우리 원마을로 돌아가자 한 말 진심이었어. 특히 너의 능력이라면. 가능할 거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우….고마워….진짜로…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너에게 말하기 진짜 잘했다…진짜 고마워…..고마워…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 고마워 날 믿고 얘기해줘서….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏...모든 선택에는 책임을 질 수 밖에 없어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아…그런 거겠지… 그냥 너한테 얘기하고 싶었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론 그 때의 시절이 끔찍했겠지만…그걸로 돈 번 거긴 하잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도망치고 나서 다행히 지금은 너가 정당한 노동의 대가를 받으면서 산다는 건 다행이라고 생각해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…하지만 아직도 난 숨어 다녀야해. 그사람들에게 아직 빚이 있단 말이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어…나도 큰 돈은 없는데….그럼 나랑 도망치자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디로…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제 말했잖아. 우리 원마을로. 거기에도 세모인들도 살아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거기가서도 내가 잘 생활할 수 있을 지 모르겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금도 도망치는 삶 속에서 잘 살고 있잖아. 잘 살 수 있을거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….생각해볼께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘은 스핏을 보기로 했다!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203120_1_Success</t>
+  </si>
+  <si>
+    <t>203120_1_Fail</t>
+  </si>
+  <si>
+    <t>203120_1_task</t>
+  </si>
+  <si>
+    <t>Dalgona Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/203120_1_Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/203120_1_Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/203120_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203120_2_task</t>
+  </si>
+  <si>
+    <t>dialogue_ep2/203120_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceCream Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/203120_2_after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskContentType</t>
+  </si>
+  <si>
+    <t>204130_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>dialogue_ep2/204130_3_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>204130_3_2</t>
   </si>
   <si>
     <t>dialogue_ep2/204130_3_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>204130_3_1</t>
-  </si>
-  <si>
-    <t>스핏...너도 그렇게 살고 싶었던 게 아니었잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭔가 말을 하는데 너가 자책하는 것 처럼 느껴져…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 원치는 않았지만…내가 내 발로 스스로 걸어들어간 거 잖아…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇게 걸어들어가도록 짜여진 이 사회가 문제지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애초에 너가 집을 나오고 싶어서 나온 것도 아니잖아. 살려고 나온 거잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적어도 그런 상황에 빠진 사람들을 구조해줄 최소한의 사회적 구조망이 있어야지</t>
-  </si>
-  <si>
-    <t>아직 청소년이던 시기에 우리가 뭘 할 수 있겠어. 돈도 없고, 집도 갈데도 없고.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 원치도 않게 그런 상황에 빠진 사람이 왜 잘못이라고 하는 거지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 그런 사람을 보게 되면 도와줄 생각을 해야지 이용해 먹으려는 사람이 나쁜 거지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가정환경이 모두가 좋다면 좋겠지만, 그럴 수 없다면 적어도 그런 사람들이 살 수 있는 환경이라도 갖춰져야되는거잖아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밖으로 나온 청소년을 보고. 특히 여자를 보고 그런 수단으로 이용해 먹는데도 묵인하는 사회라고?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런 사각지대가 있다는 건 모르면서 왜 피해자인 너가 도망쳐 다녀야해.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 잘잘못을 떠나서 난 빚이 있어 라우…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애초에 선불금은 불법이야. 그걸 빌미로 말도 안되는 이자 붙여서 널 이용해 먹는거야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…! 그렇지만… 날 발견하면 가만 두지 않을거야…이 초능력이 있다해도….평생 도망 다녀야해…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 도와줄께. 저번에 우리 원마을로 돌아가자 한 말 진심이었어. 특히 너의 능력이라면. 가능할 거야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우….고마워….진짜로…..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너에게 말하기 진짜 잘했다…진짜 고마워…..고마워…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나도 고마워 날 믿고 얘기해줘서….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏...모든 선택에는 책임을 질 수 밖에 없어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아…그런 거겠지… 그냥 너한테 얘기하고 싶었어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물론 그 때의 시절이 끔찍했겠지만…그걸로 돈 번 거긴 하잖아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도망치고 나서 다행히 지금은 너가 정당한 노동의 대가를 받으면서 산다는 건 다행이라고 생각해.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…하지만 아직도 난 숨어 다녀야해. 그사람들에게 아직 빚이 있단 말이야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어…나도 큰 돈은 없는데….그럼 나랑 도망치자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어디로…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어제 말했잖아. 우리 원마을로. 거기에도 세모인들도 살아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거기가서도 내가 잘 생활할 수 있을 지 모르겠어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금도 도망치는 삶 속에서 잘 살고 있잖아. 잘 살 수 있을거야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>….생각해볼께</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/204130_choice1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/204130_choice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(오늘은 스핏을 보기로 했다!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>203120_1_Success</t>
-  </si>
-  <si>
-    <t>203120_1_Fail</t>
-  </si>
-  <si>
-    <t>203120_1_task</t>
-  </si>
-  <si>
-    <t>Dalgona Game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/203120_1_Success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/203120_1_Fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/203120_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>203120_2_task</t>
-  </si>
-  <si>
-    <t>dialogue_ep2/203120_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IceCream Game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/203120_2_after</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taskContentType</t>
   </si>
 </sst>
 </file>
@@ -2794,16 +2583,16 @@
       <selection activeCell="A9" sqref="A9:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="41.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="41.09765625" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -2854,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -2877,7 +2666,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2896,42 +2685,42 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>203110</v>
       </c>
       <c r="E7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>203210</v>
       </c>
       <c r="E8" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2948,16 +2737,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2968,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -2996,7 +2785,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3004,13 +2793,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3021,49 +2810,49 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3074,38 +2863,38 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3122,17 +2911,17 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="41.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="1" max="1" width="41.09765625" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" customWidth="1"/>
+    <col min="5" max="5" width="26.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -3183,7 +2972,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -3206,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3217,13 +3006,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3242,16 +3031,16 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3262,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3290,7 +3079,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3298,13 +3087,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3315,24 +3104,24 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3343,24 +3132,24 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3371,32 +3160,32 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3407,31 +3196,31 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3442,10 +3231,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3462,16 +3251,16 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3482,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3510,7 +3299,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3518,13 +3307,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3535,35 +3324,35 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3574,35 +3363,35 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3613,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3627,24 +3416,24 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3655,21 +3444,21 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3680,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3700,16 +3489,16 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3720,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3748,7 +3537,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3762,24 +3551,24 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -3790,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3804,35 +3593,35 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3843,21 +3632,21 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3874,16 +3663,16 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="88.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3894,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -3922,7 +3711,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3936,10 +3725,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3950,24 +3739,24 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3978,38 +3767,38 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4020,15 +3809,15 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4039,24 +3828,24 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4067,24 +3856,24 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4095,24 +3884,24 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4123,10 +3912,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4137,10 +3926,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4151,24 +3940,24 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4179,24 +3968,24 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4207,24 +3996,24 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4235,24 +4024,24 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4263,24 +4052,24 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4291,24 +4080,24 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4319,24 +4108,24 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4347,24 +4136,24 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4375,24 +4164,24 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4411,16 +4200,16 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="88.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4431,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4459,7 +4248,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4473,24 +4262,24 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -4501,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4515,10 +4304,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4529,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4543,24 +4332,24 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4571,10 +4360,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4585,24 +4374,24 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4613,24 +4402,24 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4641,24 +4430,24 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4669,24 +4458,24 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4697,24 +4486,24 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4725,24 +4514,24 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4753,24 +4542,24 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4781,24 +4570,24 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4809,24 +4598,24 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4837,24 +4626,24 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4873,16 +4662,16 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="88.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4893,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4921,7 +4710,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4935,24 +4724,24 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -4963,24 +4752,24 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4991,24 +4780,24 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5019,24 +4808,24 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5047,10 +4836,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5061,66 +4850,66 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5131,38 +4920,38 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5173,24 +4962,24 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5201,24 +4990,24 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5237,16 +5026,16 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="88.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5257,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5285,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5299,52 +5088,52 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5355,24 +5144,24 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5383,24 +5172,24 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5411,24 +5200,24 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5439,10 +5228,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5453,38 +5242,38 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5495,24 +5284,24 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5523,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5537,24 +5326,24 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5565,24 +5354,24 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5593,24 +5382,24 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5621,24 +5410,24 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5646,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5665,16 +5454,16 @@
       <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="88.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5685,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -5713,7 +5502,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5721,7 +5510,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5732,29 +5521,29 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5765,24 +5554,24 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5793,38 +5582,38 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5835,24 +5624,24 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -5871,11 +5660,11 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="63.59765625" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5933,10 +5722,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5947,10 +5736,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5961,10 +5750,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6013,16 +5802,16 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="88.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6033,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6061,7 +5850,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6069,16 +5858,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6089,10 +5878,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1"/>
@@ -6112,16 +5901,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="88.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6132,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6160,7 +5949,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6168,16 +5957,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6188,24 +5977,24 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6216,10 +6005,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6238,16 +6027,16 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="88.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6258,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6286,7 +6075,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6294,16 +6083,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6314,24 +6103,24 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6342,15 +6131,15 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6361,10 +6150,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6375,10 +6164,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6389,57 +6178,57 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -6458,16 +6247,16 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="88.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6478,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -6506,7 +6295,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6514,16 +6303,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6534,24 +6323,24 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6562,10 +6351,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6576,24 +6365,24 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6604,244 +6393,244 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="D28" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="D29" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -6854,22 +6643,22 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="41.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="41.09765625" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -6920,7 +6709,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -6943,7 +6732,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6962,47 +6751,36 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7013,142 +6791,21 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E521A528-CCAF-4977-8123-CA6CC3C8C0C7}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52AF8F0-2AA7-4AC1-BFA0-9028896261AC}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="88.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7159,7 +6816,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7187,7 +6844,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7201,10 +6858,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7215,24 +6872,24 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7243,10 +6900,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7257,10 +6914,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7271,10 +6928,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7285,10 +6942,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7299,10 +6956,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7313,24 +6970,24 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7341,10 +6998,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7355,10 +7012,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7369,24 +7026,24 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7397,24 +7054,24 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7425,38 +7082,38 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7467,10 +7124,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -7481,108 +7138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6758B024-BCDC-4FCC-BB2E-B90F74AA333A}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CD2AAF-47ED-4B4E-BB2F-2E55BD40FEA4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -7590,16 +7146,16 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="88.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="88.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7610,7 +7166,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7638,7 +7194,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7652,24 +7208,24 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -7680,10 +7236,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7694,24 +7250,24 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7722,24 +7278,24 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7750,24 +7306,24 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7778,24 +7334,24 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -7814,16 +7370,16 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="25.3984375" customWidth="1"/>
+    <col min="4" max="4" width="39.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7834,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7862,7 +7418,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7876,13 +7432,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34.799999999999997">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7890,10 +7446,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7904,10 +7460,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -7924,16 +7480,16 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7944,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -7972,7 +7528,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7986,10 +7542,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8000,10 +7556,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8014,10 +7570,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -8034,16 +7590,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8054,7 +7610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8082,7 +7638,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8096,10 +7652,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8110,10 +7666,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8124,24 +7680,24 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8152,24 +7708,24 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8180,38 +7736,38 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8222,10 +7778,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -8243,16 +7799,16 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8263,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8291,7 +7847,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8299,19 +7855,19 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="33">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34.799999999999997">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8319,24 +7875,24 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -8353,16 +7909,16 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8373,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8401,7 +7957,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8409,16 +7965,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="33">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8426,10 +7982,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8440,24 +7996,24 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8468,24 +8024,24 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8496,24 +8052,24 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8524,10 +8080,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -8544,17 +8100,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="41.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="1" max="1" width="41.09765625" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" customWidth="1"/>
+    <col min="5" max="5" width="26.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -8605,7 +8161,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -8628,7 +8184,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -8639,16 +8195,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F6" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -8663,20 +8219,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B0F605-91DC-4F85-B625-36F288777449}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="35.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8687,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -8715,7 +8271,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -8723,13 +8279,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8740,46 +8296,46 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8790,21 +8346,21 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8815,10 +8371,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8829,24 +8385,24 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8857,38 +8413,38 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B664D7-A123-4730-85AD-43720A282EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E664B24-0F6F-4311-82CF-F43A01030287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3912" yWindow="408" windowWidth="17280" windowHeight="9420" firstSheet="23" activeTab="23" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="16" activeTab="23" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -2583,11 +2583,11 @@
       <selection activeCell="A9" sqref="A9:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.09765625" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" customWidth="1"/>
+    <col min="1" max="1" width="41.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2735,13 +2735,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13AF488-B229-4962-91D0-7ED403EE7FEC}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2908,15 +2910,15 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.09765625" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" customWidth="1"/>
-    <col min="5" max="5" width="26.8984375" customWidth="1"/>
+    <col min="1" max="1" width="41.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="5" max="5" width="26.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3031,11 +3033,11 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3251,11 +3253,11 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3489,11 +3491,11 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3663,11 +3665,11 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="88.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="88.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4200,11 +4202,11 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="88.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="88.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4662,11 +4664,11 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="88.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="88.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5026,11 +5028,11 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="88.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="88.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5454,11 +5456,11 @@
       <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="88.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="88.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5660,11 +5662,11 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.59765625" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5802,11 +5804,11 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="88.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="88.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5898,14 +5900,14 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="88.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="88.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6027,11 +6029,11 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="88.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="88.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6247,11 +6249,11 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="88.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="88.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6646,14 +6648,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.09765625" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" customWidth="1"/>
+    <col min="1" max="1" width="41.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6796,11 +6798,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="88.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="88.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7143,14 +7145,14 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="88.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="88.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7370,11 +7372,11 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="25.3984375" customWidth="1"/>
-    <col min="4" max="4" width="39.09765625" customWidth="1"/>
+    <col min="3" max="3" width="25.4140625" customWidth="1"/>
+    <col min="4" max="4" width="39.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7438,7 +7440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7480,11 +7482,11 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7590,11 +7592,11 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7799,11 +7801,11 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7867,7 +7869,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7909,11 +7911,11 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7974,7 +7976,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8097,15 +8099,15 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.09765625" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" customWidth="1"/>
-    <col min="5" max="5" width="26.8984375" customWidth="1"/>
+    <col min="1" max="1" width="41.08203125" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="5" max="5" width="26.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8223,11 +8225,11 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E664B24-0F6F-4311-82CF-F43A01030287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7441A19E-D806-4067-9689-23CF4344F49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="16" activeTab="23" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="9" activeTab="16" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -26,19 +26,21 @@
     <sheet name="203120_2_task" sheetId="73" r:id="rId11"/>
     <sheet name="203120_2" sheetId="54" r:id="rId12"/>
     <sheet name="203120_2_after" sheetId="58" r:id="rId13"/>
-    <sheet name="203120_3" sheetId="55" r:id="rId14"/>
-    <sheet name="203130_1" sheetId="52" r:id="rId15"/>
-    <sheet name="203130_2" sheetId="59" r:id="rId16"/>
-    <sheet name="203130_3" sheetId="60" r:id="rId17"/>
-    <sheet name="203130_4" sheetId="61" r:id="rId18"/>
-    <sheet name="204110" sheetId="62" r:id="rId19"/>
-    <sheet name="204120" sheetId="63" r:id="rId20"/>
-    <sheet name="204130_1" sheetId="64" r:id="rId21"/>
-    <sheet name="204130_2" sheetId="65" r:id="rId22"/>
-    <sheet name="204130_3" sheetId="66" r:id="rId23"/>
-    <sheet name="204130_choice" sheetId="67" r:id="rId24"/>
-    <sheet name="204130_3_1" sheetId="70" r:id="rId25"/>
-    <sheet name="204130_3_2" sheetId="71" r:id="rId26"/>
+    <sheet name="203120_3_first" sheetId="75" r:id="rId14"/>
+    <sheet name="203120_3_default" sheetId="74" r:id="rId15"/>
+    <sheet name="203120_3" sheetId="55" r:id="rId16"/>
+    <sheet name="203130_1" sheetId="52" r:id="rId17"/>
+    <sheet name="203130_2" sheetId="59" r:id="rId18"/>
+    <sheet name="203130_3" sheetId="60" r:id="rId19"/>
+    <sheet name="203130_4" sheetId="61" r:id="rId20"/>
+    <sheet name="204110" sheetId="62" r:id="rId21"/>
+    <sheet name="204120" sheetId="63" r:id="rId22"/>
+    <sheet name="204130_1" sheetId="64" r:id="rId23"/>
+    <sheet name="204130_2" sheetId="65" r:id="rId24"/>
+    <sheet name="204130_3" sheetId="66" r:id="rId25"/>
+    <sheet name="204130_choice" sheetId="67" r:id="rId26"/>
+    <sheet name="204130_3_1" sheetId="70" r:id="rId27"/>
+    <sheet name="204130_3_2" sheetId="71" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,7 +97,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{24021271-C5ED-4268-8159-EAF36213B98D}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A1B92BDB-3545-4F8D-819F-2EE1A24216A6}">
       <text>
         <r>
           <rPr>
@@ -128,7 +130,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{344EE750-A6F7-4EE0-9D37-627DA48683B0}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{24021271-C5ED-4268-8159-EAF36213B98D}">
       <text>
         <r>
           <rPr>
@@ -161,7 +163,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4E92DE45-2719-4A5E-913C-9943110E53DD}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{344EE750-A6F7-4EE0-9D37-627DA48683B0}">
       <text>
         <r>
           <rPr>
@@ -194,6 +196,39 @@
     <author>훠이</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4E92DE45-2719-4A5E-913C-9943110E53DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{FDB2BD71-A357-48DE-BFB1-45106A1AEC5A}">
       <text>
         <r>
@@ -221,7 +256,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -428,7 +463,7 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -461,7 +496,7 @@
 </comments>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -593,10 +628,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>훠이</author>
+    <author>최선</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4CCDAC47-ED97-4AAE-8705-2AD714198DEA}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6F468EAC-E190-4C94-A89C-C7E06A9A04D8}">
       <text>
         <r>
           <rPr>
@@ -629,7 +664,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D31D2EB7-ED8D-4D10-9F47-48412535C639}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4CCDAC47-ED97-4AAE-8705-2AD714198DEA}">
       <text>
         <r>
           <rPr>
@@ -662,7 +697,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{0BD03A28-E567-4B23-B8F0-0DD4F21CC168}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D31D2EB7-ED8D-4D10-9F47-48412535C639}">
       <text>
         <r>
           <rPr>
@@ -695,7 +730,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{AD8160A3-7D96-4F86-8321-EED22327D14D}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{0BD03A28-E567-4B23-B8F0-0DD4F21CC168}">
       <text>
         <r>
           <rPr>
@@ -728,7 +763,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A1B92BDB-3545-4F8D-819F-2EE1A24216A6}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{AD8160A3-7D96-4F86-8321-EED22327D14D}">
       <text>
         <r>
           <rPr>
@@ -756,7 +791,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="376">
   <si>
     <t>이름</t>
   </si>
@@ -1284,46 +1319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그러면 다행이구먼~함 구경하고 가~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아~ 즐거웠다! 덕분에 재밌었어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>많이 피곤하진 않아?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조금…? 그래도 뭐 이정도야 괜찮아. 하루 쉬면 되니까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헉..! 혹시 나때문에 쉬는거 아니지..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니..뭐 차피 나도 놀고 싶었고…맨날 일만 하고 사니까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오히려 연락해줘서 고마워 라우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏…감동이야...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둘은 맥주를 마시면서 이런저런 도란도란 이야기를 나누었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏, 너는 꿈이 뭐야??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>꿈?? 갑자기??</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2177,6 +2172,98 @@
   </si>
   <si>
     <t>dialogue_ep2/204130_3_2</t>
+  </si>
+  <si>
+    <t>203120_3_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203120_3_first</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗, 지금은 다른 일좀 하느라 그런데 다른 곳좀 구경하고 오시게나~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장 구경은 잘하셨는가? 별 볼거 없지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니에요~ 재밌게 구경하고 있었어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 다행이구먼~시장 좀 구경좀 하고 오게나~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>껄껄, 그러면 다행이고. 이번엔 필요한 건 딱히 없고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음, 당장은 없긴 한데 여행 중에 생기면 다시 또 들릴께요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그래, 이번에는 친구랑 같이 왔네? 어떻게 만났는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 식당에서 우연히 만나게 되서 오늘 같이 놀고 있었어요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇구만, 가만보니… 이 친구…잘 못보던 친구 같네..? 내가 여기 사람들 웬만하면 다 아는데 말이지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(앗…스핏…뭔가 두려운 표정을 짓고 있잖아…? 이런 표정은 처음 봤는데…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠…자네 무슨 일 하고 지내는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗, 저희 갑자기 급하게 생긴 일이 있어서요! 이만…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏, 아까는 괜찮았어…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐가…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니…아까 상인 아저씨가 널 추궁하듯이 물어보는데… 너가 뭔가… 무서워하는 표정이길래…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아… 아냐… 괜찮아…! 그냥 낯가려서 그랬어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(낯가리는 성격은 아닌 거 같은데…)아무튼…괜찮다면 다행이고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘은 맥주를 마시면서 이런저런 도란도란 이야기를 나누고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 근데 스핏, 너는 꿈이 뭐야??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2643,7 +2730,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -2697,10 +2784,10 @@
         <v>203110</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2717,10 +2804,10 @@
         <v>203210</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F8" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2748,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2923,7 +3010,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -2974,7 +3061,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -2997,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3008,13 +3095,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3030,7 +3117,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3484,11 +3571,270 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7146A20D-72BA-488F-B62C-9A9E51DA7DD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D87545E-B9F6-4C60-92B6-6C388F757FC7}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F233AD96-926A-4AA3-8DB3-46A95395429A}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7146A20D-72BA-488F-B62C-9A9E51DA7DD5}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3547,44 +3893,38 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>129</v>
+      <c r="D7" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3592,77 +3932,117 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>132</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>135</v>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3690E5-FB9A-46DE-BB2A-94F3617E9F5B}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3674,7 +4054,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3720,17 +4100,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>136</v>
+      <c r="D5" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3744,7 +4115,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>137</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -3752,13 +4123,13 @@
         <v>53</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>138</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3766,13 +4137,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3783,24 +4154,24 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3814,12 +4185,21 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3833,7 +4213,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3841,13 +4221,13 @@
         <v>53</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3861,7 +4241,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3869,13 +4249,13 @@
         <v>53</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3883,27 +4263,27 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3911,27 +4291,27 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3939,13 +4319,13 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3959,7 +4339,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3967,13 +4347,13 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3987,7 +4367,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4001,7 +4381,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4015,7 +4395,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4023,13 +4403,13 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4043,7 +4423,7 @@
         <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4051,13 +4431,13 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4065,13 +4445,13 @@
         <v>53</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4085,7 +4465,7 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4093,13 +4473,13 @@
         <v>53</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
         <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4113,7 +4493,7 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4127,7 +4507,7 @@
         <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4135,13 +4515,13 @@
         <v>7</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4155,35 +4535,7 @@
         <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4194,11 +4546,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43B8F24-DE80-4BD0-80DE-E84894F6B388}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -4211,7 +4563,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4267,7 +4619,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4281,7 +4633,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -4295,7 +4647,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4309,7 +4661,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4323,7 +4675,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4337,7 +4689,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4351,7 +4703,7 @@
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4365,7 +4717,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4379,7 +4731,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4393,7 +4745,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4407,7 +4759,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4421,7 +4773,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4435,7 +4787,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4449,7 +4801,7 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4463,7 +4815,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4477,7 +4829,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4491,7 +4843,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4505,7 +4857,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4519,7 +4871,7 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4533,7 +4885,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4547,7 +4899,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4561,7 +4913,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4575,7 +4927,7 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4589,7 +4941,7 @@
         <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4603,7 +4955,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4617,7 +4969,7 @@
         <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4631,7 +4983,7 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4645,7 +4997,7 @@
         <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4656,7 +5008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E55E97-244A-4E68-8F6E-EF23BD40578F}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -4673,7 +5025,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4729,7 +5081,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4743,7 +5095,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -4757,7 +5109,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4771,7 +5123,7 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4785,7 +5137,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4799,7 +5151,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4813,7 +5165,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4827,7 +5179,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4841,7 +5193,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4855,7 +5207,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4869,7 +5221,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4883,7 +5235,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4897,7 +5249,7 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4911,7 +5263,7 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4925,7 +5277,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4939,7 +5291,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4953,7 +5305,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4967,7 +5319,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4981,7 +5333,7 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4995,7 +5347,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5009,7 +5361,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5020,7 +5372,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD3D267-149A-4874-91EC-FEEC24D1F08D}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D087BC7-FCE0-4CA7-8288-D44E62861902}">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -5037,7 +5531,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5093,7 +5587,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5107,7 +5601,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -5121,7 +5615,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5135,7 +5629,7 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5149,7 +5643,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5163,7 +5657,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5177,7 +5671,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5191,7 +5685,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5205,7 +5699,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5219,7 +5713,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5233,7 +5727,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5247,7 +5741,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5261,7 +5755,7 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5275,7 +5769,7 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5289,7 +5783,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5303,7 +5797,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5317,7 +5811,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5331,7 +5825,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5345,7 +5839,7 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5359,7 +5853,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5373,7 +5867,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5387,7 +5881,7 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5401,7 +5895,7 @@
         <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5415,7 +5909,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5429,7 +5923,7 @@
         <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5437,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5448,7 +5942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C438B-CF27-4DC1-A8BD-65104AA75AA2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -5465,7 +5959,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5512,7 +6006,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5526,7 +6020,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -5540,12 +6034,12 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5559,7 +6053,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5573,7 +6067,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5587,7 +6081,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5601,7 +6095,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5615,7 +6109,7 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5629,7 +6123,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5643,7 +6137,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5654,149 +6148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD3D267-149A-4874-91EC-FEEC24D1F08D}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.58203125" customWidth="1"/>
-    <col min="5" max="5" width="16.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55FC358-28FE-4422-9C00-DD5C708B704C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -5813,7 +6165,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5869,7 +6221,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5883,7 +6235,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1"/>
@@ -5895,7 +6247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D4C81D-2B0C-4688-8FA1-5D8D899ADC7E}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -5912,7 +6264,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5968,7 +6320,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5982,7 +6334,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -5996,7 +6348,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6010,7 +6362,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -6021,7 +6373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B824D30-903D-4FAA-9CFC-53AFFAAC0079}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -6038,7 +6390,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6094,7 +6446,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6108,7 +6460,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6122,7 +6474,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6136,12 +6488,12 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6155,7 +6507,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6169,7 +6521,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6183,7 +6535,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6197,12 +6549,12 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6216,7 +6568,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6230,7 +6582,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6241,7 +6593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCF49C2-6837-4246-9400-C38B3632841D}">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -6258,7 +6610,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6314,7 +6666,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6328,7 +6680,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6342,7 +6694,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6356,7 +6708,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6370,7 +6722,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6384,7 +6736,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6398,7 +6750,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6412,7 +6764,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6426,7 +6778,7 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6440,7 +6792,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6454,7 +6806,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6468,7 +6820,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6482,7 +6834,7 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6496,7 +6848,7 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6510,7 +6862,7 @@
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6524,7 +6876,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6538,7 +6890,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6552,7 +6904,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6566,7 +6918,7 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6580,7 +6932,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6594,7 +6946,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6608,7 +6960,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6622,17 +6974,17 @@
         <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="D28" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="D29" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -6643,11 +6995,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -6660,7 +7012,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -6711,7 +7063,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -6734,7 +7086,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6753,36 +7105,36 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -6792,7 +7144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52AF8F0-2AA7-4AC1-BFA0-9028896261AC}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -6807,7 +7159,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6863,7 +7215,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6877,7 +7229,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6891,7 +7243,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6905,7 +7257,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6919,7 +7271,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6933,7 +7285,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6947,7 +7299,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6961,7 +7313,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6975,7 +7327,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6989,7 +7341,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7003,7 +7355,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7017,7 +7369,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7031,7 +7383,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7045,7 +7397,7 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7059,7 +7411,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7073,7 +7425,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7087,7 +7439,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7101,7 +7453,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7115,7 +7467,7 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7129,7 +7481,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -7140,7 +7492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CD2AAF-47ED-4B4E-BB2F-2E55BD40FEA4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -7157,7 +7509,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7213,7 +7565,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7227,7 +7579,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -7241,7 +7593,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7255,7 +7607,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7269,7 +7621,7 @@
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7283,7 +7635,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7297,7 +7649,7 @@
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7311,7 +7663,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7325,7 +7677,7 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7339,7 +7691,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7353,7 +7705,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -7657,7 +8009,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8112,7 +8464,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -8163,7 +8515,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -8186,7 +8538,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -8197,16 +8549,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F6" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -8234,7 +8586,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7441A19E-D806-4067-9689-23CF4344F49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2069AA59-459E-4BA8-BB34-14A4714E73CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="9" activeTab="16" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="1480" yWindow="770" windowWidth="19200" windowHeight="10060" firstSheet="4" activeTab="5" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -18,29 +18,30 @@
     <sheet name="203010_speat" sheetId="46" r:id="rId3"/>
     <sheet name="203010_oun" sheetId="47" r:id="rId4"/>
     <sheet name="203110" sheetId="50" r:id="rId5"/>
-    <sheet name="203120" sheetId="51" r:id="rId6"/>
-    <sheet name="203120_1" sheetId="53" r:id="rId7"/>
-    <sheet name="203120_1_task" sheetId="72" r:id="rId8"/>
-    <sheet name="203120_1_Success" sheetId="56" r:id="rId9"/>
-    <sheet name="203120_1_Fail" sheetId="57" r:id="rId10"/>
-    <sheet name="203120_2_task" sheetId="73" r:id="rId11"/>
-    <sheet name="203120_2" sheetId="54" r:id="rId12"/>
-    <sheet name="203120_2_after" sheetId="58" r:id="rId13"/>
-    <sheet name="203120_3_first" sheetId="75" r:id="rId14"/>
-    <sheet name="203120_3_default" sheetId="74" r:id="rId15"/>
-    <sheet name="203120_3" sheetId="55" r:id="rId16"/>
-    <sheet name="203130_1" sheetId="52" r:id="rId17"/>
-    <sheet name="203130_2" sheetId="59" r:id="rId18"/>
-    <sheet name="203130_3" sheetId="60" r:id="rId19"/>
-    <sheet name="203130_4" sheetId="61" r:id="rId20"/>
-    <sheet name="204110" sheetId="62" r:id="rId21"/>
-    <sheet name="204120" sheetId="63" r:id="rId22"/>
-    <sheet name="204130_1" sheetId="64" r:id="rId23"/>
-    <sheet name="204130_2" sheetId="65" r:id="rId24"/>
-    <sheet name="204130_3" sheetId="66" r:id="rId25"/>
-    <sheet name="204130_choice" sheetId="67" r:id="rId26"/>
-    <sheet name="204130_3_1" sheetId="70" r:id="rId27"/>
-    <sheet name="204130_3_2" sheetId="71" r:id="rId28"/>
+    <sheet name="203110_speat" sheetId="76" r:id="rId6"/>
+    <sheet name="203120" sheetId="51" r:id="rId7"/>
+    <sheet name="203120_1" sheetId="53" r:id="rId8"/>
+    <sheet name="203120_1_task" sheetId="72" r:id="rId9"/>
+    <sheet name="203120_1_Success" sheetId="56" r:id="rId10"/>
+    <sheet name="203120_1_Fail" sheetId="57" r:id="rId11"/>
+    <sheet name="203120_2_task" sheetId="73" r:id="rId12"/>
+    <sheet name="203120_2" sheetId="54" r:id="rId13"/>
+    <sheet name="203120_2_after" sheetId="58" r:id="rId14"/>
+    <sheet name="203120_3_first" sheetId="75" r:id="rId15"/>
+    <sheet name="203120_3_default" sheetId="74" r:id="rId16"/>
+    <sheet name="203120_3" sheetId="55" r:id="rId17"/>
+    <sheet name="203130_1" sheetId="52" r:id="rId18"/>
+    <sheet name="203130_2" sheetId="59" r:id="rId19"/>
+    <sheet name="203130_3" sheetId="60" r:id="rId20"/>
+    <sheet name="203130_4" sheetId="61" r:id="rId21"/>
+    <sheet name="204110" sheetId="62" r:id="rId22"/>
+    <sheet name="204120" sheetId="63" r:id="rId23"/>
+    <sheet name="204130_1" sheetId="64" r:id="rId24"/>
+    <sheet name="204130_2" sheetId="65" r:id="rId25"/>
+    <sheet name="204130_3" sheetId="66" r:id="rId26"/>
+    <sheet name="204130_choice" sheetId="67" r:id="rId27"/>
+    <sheet name="204130_3_1" sheetId="70" r:id="rId28"/>
+    <sheet name="204130_3_2" sheetId="71" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,6 +95,202 @@
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E84691A2-867D-40FB-A49F-554B028EBF12}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1 DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4 TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8 TempDialogueEnd = 9
+Cinematic = 10</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6F468EAC-E190-4C94-A89C-C7E06A9A04D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4CCDAC47-ED97-4AAE-8705-2AD714198DEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D31D2EB7-ED8D-4D10-9F47-48412535C639}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{0BD03A28-E567-4B23-B8F0-0DD4F21CC168}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{AD8160A3-7D96-4F86-8321-EED22327D14D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>훠이</author>
   </authors>
   <commentList>
@@ -124,7 +321,7 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -157,7 +354,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -190,7 +387,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -223,7 +420,41 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{370B9A26-3BD6-4AD8-BCD9-2A6F57F4E96C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -256,7 +487,7 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -463,7 +694,7 @@
 </comments>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -496,7 +727,7 @@
 </comments>
 </file>
 
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -529,22 +760,21 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>훠이</author>
+    <author>최선</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{370B9A26-3BD6-4AD8-BCD9-2A6F57F4E96C}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F9C3BAA0-5BC3-4C96-B34C-94B0A9CA7E58}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>0: Idle
 1: Laugh
@@ -563,7 +793,172 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1701EE47-BF6E-460F-8B51-6242D9425505}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{45AC5C84-92D5-453D-B72A-29E2E800857E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F9ABA4E0-F90C-43CA-8F5C-6B101937985B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2DFCE634-92EE-412A-B581-3F14138FC768}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B9080492-F035-4C3E-A4FF-49CC44E5323F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -594,204 +989,8 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>최선</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E84691A2-867D-40FB-A49F-554B028EBF12}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NONE = 0
-ANIMATION = 1 DIALOGUE = 2
-TEMP = 3
-TEMPEND = 4 TaskReset = 5
-NEW = 6
-THEEND = 7
-Play = 8 TempDialogueEnd = 9
-Cinematic = 10</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>최선</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6F468EAC-E190-4C94-A89C-C7E06A9A04D8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4CCDAC47-ED97-4AAE-8705-2AD714198DEA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D31D2EB7-ED8D-4D10-9F47-48412535C639}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{0BD03A28-E567-4B23-B8F0-0DD4F21CC168}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{AD8160A3-7D96-4F86-8321-EED22327D14D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="377">
   <si>
     <t>이름</t>
   </si>
@@ -2263,6 +2462,10 @@
   </si>
   <si>
     <t>아 근데 스핏, 너는 꿈이 뭐야??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203110_speat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2656,7 +2859,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2819,6 +3022,244 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B0F605-91DC-4F85-B625-36F288777449}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13AF488-B229-4962-91D0-7ED403EE7FEC}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -2992,7 +3433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72847EAD-B753-4472-896A-A550A32270AB}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -3112,7 +3553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099ACD21-63EA-480D-97F3-C5558D0EDE50}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -3332,7 +3773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24852A00-72DD-47E2-936F-0F4D09503E57}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -3570,7 +4011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D87545E-B9F6-4C60-92B6-6C388F757FC7}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -3744,12 +4185,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F233AD96-926A-4AA3-8DB3-46A95395429A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3829,7 +4270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7146A20D-72BA-488F-B62C-9A9E51DA7DD5}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -4037,11 +4478,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3690E5-FB9A-46DE-BB2A-94F3617E9F5B}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4546,7 +4987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43B8F24-DE80-4BD0-80DE-E84894F6B388}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -5008,7 +5449,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD3D267-149A-4874-91EC-FEEC24D1F08D}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E55E97-244A-4E68-8F6E-EF23BD40578F}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -5372,149 +5955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD3D267-149A-4874-91EC-FEEC24D1F08D}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.58203125" customWidth="1"/>
-    <col min="5" max="5" width="16.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D087BC7-FCE0-4CA7-8288-D44E62861902}">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -5942,7 +6383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C438B-CF27-4DC1-A8BD-65104AA75AA2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -6148,7 +6589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55FC358-28FE-4422-9C00-DD5C708B704C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -6247,7 +6688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D4C81D-2B0C-4688-8FA1-5D8D899ADC7E}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -6373,7 +6814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B824D30-903D-4FAA-9CFC-53AFFAAC0079}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -6593,7 +7034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCF49C2-6837-4246-9400-C38B3632841D}">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -6995,7 +7436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -7144,7 +7585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52AF8F0-2AA7-4AC1-BFA0-9028896261AC}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -7492,7 +7933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CD2AAF-47ED-4B4E-BB2F-2E55BD40FEA4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -7717,11 +8158,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A670AA-5CD6-4800-B537-263F1D9144DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A670AA-5CD6-4800-B537-263F1D9144DD}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -7811,7 +8252,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -7823,15 +8264,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923367E5-D55A-49D4-B896-6534352A0EE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923367E5-D55A-49D4-B896-6534352A0EE1}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -7907,7 +8350,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -7921,7 +8364,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -7933,15 +8376,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721F2399-C2B2-488E-AB5F-EAF0C6756577}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721F2399-C2B2-488E-AB5F-EAF0C6756577}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -8003,7 +8447,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -8031,7 +8475,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -8041,116 +8485,190 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>61</v>
-      </c>
+      <c r="D8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB3A44B-7E99-4A16-9DC8-DC910E86BE69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF90A388-B0FF-48C1-A499-FD2671DEF030}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB3A44B-7E99-4A16-9DC8-DC910E86BE69}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -8252,15 +8770,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DDEC9A-053A-42FE-933D-CBBC6C2B64D3}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DDEC9A-053A-42FE-933D-CBBC6C2B64D3}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -8443,10 +8962,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974070FC-5719-4468-BBEA-5A9091DC4181}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -8567,242 +9087,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B0F605-91DC-4F85-B625-36F288777449}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2069AA59-459E-4BA8-BB34-14A4714E73CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17E4827-D6E4-472A-BCFB-64B27DBDBCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="770" windowWidth="19200" windowHeight="10060" firstSheet="4" activeTab="5" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="6620" yWindow="0" windowWidth="18980" windowHeight="13800" firstSheet="22" activeTab="28" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="379">
   <si>
     <t>이름</t>
   </si>
@@ -2466,6 +2466,14 @@
   </si>
   <si>
     <t>203110_speat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Citizen_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Hawker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2859,7 +2867,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2870,7 +2878,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3026,7 +3034,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3090,6 +3098,9 @@
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>377</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>78</v>
       </c>
@@ -3129,6 +3140,9 @@
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="C8" t="s">
+        <v>377</v>
+      </c>
       <c r="D8" t="s">
         <v>81</v>
       </c>
@@ -3140,6 +3154,9 @@
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9" t="s">
+        <v>377</v>
+      </c>
       <c r="D9" t="s">
         <v>82</v>
       </c>
@@ -3164,6 +3181,9 @@
       </c>
       <c r="B11">
         <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>377</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
@@ -3264,7 +3284,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3328,6 +3348,9 @@
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>377</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>91</v>
       </c>
@@ -3366,6 +3389,9 @@
       </c>
       <c r="B8">
         <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>377</v>
       </c>
       <c r="D8" t="s">
         <v>94</v>
@@ -3558,7 +3584,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3622,6 +3648,9 @@
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>377</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>100</v>
       </c>
@@ -3703,6 +3732,9 @@
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11" t="s">
+        <v>377</v>
+      </c>
       <c r="D11" t="s">
         <v>106</v>
       </c>
@@ -3714,6 +3746,9 @@
       <c r="B12">
         <v>0</v>
       </c>
+      <c r="C12" t="s">
+        <v>377</v>
+      </c>
       <c r="D12" t="s">
         <v>107</v>
       </c>
@@ -3743,6 +3778,9 @@
       </c>
       <c r="B15">
         <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>377</v>
       </c>
       <c r="D15" t="s">
         <v>110</v>
@@ -3778,7 +3816,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3842,6 +3880,9 @@
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>377</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>114</v>
       </c>
@@ -3881,6 +3922,9 @@
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="C8" t="s">
+        <v>377</v>
+      </c>
       <c r="D8" t="s">
         <v>117</v>
       </c>
@@ -3906,6 +3950,9 @@
       <c r="B10">
         <v>0</v>
       </c>
+      <c r="C10" t="s">
+        <v>377</v>
+      </c>
       <c r="D10" t="s">
         <v>119</v>
       </c>
@@ -3986,6 +4033,9 @@
       </c>
       <c r="B16">
         <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>377</v>
       </c>
       <c r="D16" t="s">
         <v>125</v>
@@ -4016,7 +4066,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4150,6 +4200,9 @@
       <c r="B10">
         <v>0</v>
       </c>
+      <c r="C10" t="s">
+        <v>378</v>
+      </c>
       <c r="D10" t="s">
         <v>133</v>
       </c>
@@ -4174,6 +4227,9 @@
       </c>
       <c r="B12">
         <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>378</v>
       </c>
       <c r="D12" t="s">
         <v>358</v>
@@ -4188,91 +4244,6 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F233AD96-926A-4AA3-8DB3-46A95395429A}">
   <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7146A20D-72BA-488F-B62C-9A9E51DA7DD5}">
-  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -4287,7 +4258,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4339,6 +4310,97 @@
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="D7" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7146A20D-72BA-488F-B62C-9A9E51DA7DD5}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>378</v>
+      </c>
       <c r="D5" t="s">
         <v>356</v>
       </c>
@@ -4364,6 +4426,9 @@
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="C7" t="s">
+        <v>378</v>
+      </c>
       <c r="D7" t="s">
         <v>359</v>
       </c>
@@ -4389,6 +4454,9 @@
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9" t="s">
+        <v>378</v>
+      </c>
       <c r="D9" t="s">
         <v>361</v>
       </c>
@@ -4414,6 +4482,9 @@
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11" t="s">
+        <v>378</v>
+      </c>
       <c r="D11" t="s">
         <v>363</v>
       </c>
@@ -4452,6 +4523,9 @@
       </c>
       <c r="B14">
         <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>378</v>
       </c>
       <c r="D14" t="s">
         <v>366</v>
@@ -4482,7 +4556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3690E5-FB9A-46DE-BB2A-94F3617E9F5B}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -7937,8 +8011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CD2AAF-47ED-4B4E-BB2F-2E55BD40FEA4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -8385,7 +8459,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -8499,7 +8573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF90A388-B0FF-48C1-A499-FD2671DEF030}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -8779,7 +8853,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -8842,6 +8916,9 @@
       </c>
       <c r="B5">
         <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>377</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>69</v>

--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17E4827-D6E4-472A-BCFB-64B27DBDBCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B8BB39-A582-4C4F-A373-DB5DFB4B7715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="0" windowWidth="18980" windowHeight="13800" firstSheet="22" activeTab="28" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="19" activeTab="28" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -78,13 +78,19 @@
             <family val="2"/>
           </rPr>
           <t>NONE = 0
-ANIMATION = 1 DIALOGUE = 2
+ANIMATION = 1
+DIALOGUE = 2
 TEMP = 3
-TEMPEND = 4 TaskReset = 5
+TEMPEND = 4
+TaskReset = 5
 NEW = 6
 THEEND = 7
-Play = 8 TempDialogueEnd = 9
-Cinematic = 10</t>
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12
+Clear = 13</t>
         </r>
       </text>
     </comment>
@@ -109,13 +115,19 @@
             <family val="2"/>
           </rPr>
           <t>NONE = 0
-ANIMATION = 1 DIALOGUE = 2
+ANIMATION = 1
+DIALOGUE = 2
 TEMP = 3
-TEMPEND = 4 TaskReset = 5
+TEMPEND = 4
+TaskReset = 5
 NEW = 6
 THEEND = 7
-Play = 8 TempDialogueEnd = 9
-Cinematic = 10</t>
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12
+Clear = 13</t>
         </r>
       </text>
     </comment>
@@ -505,13 +517,19 @@
             <family val="2"/>
           </rPr>
           <t>NONE = 0
-ANIMATION = 1 DIALOGUE = 2
+ANIMATION = 1
+DIALOGUE = 2
 TEMP = 3
-TEMPEND = 4 TaskReset = 5
+TEMPEND = 4
+TaskReset = 5
 NEW = 6
 THEEND = 7
-Play = 8 TempDialogueEnd = 9
-Cinematic = 10</t>
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12
+Clear = 13</t>
         </r>
       </text>
     </comment>
@@ -975,13 +993,19 @@
             <family val="2"/>
           </rPr>
           <t>NONE = 0
-ANIMATION = 1 DIALOGUE = 2
+ANIMATION = 1
+DIALOGUE = 2
 TEMP = 3
-TEMPEND = 4 TaskReset = 5
+TEMPEND = 4
+TaskReset = 5
 NEW = 6
 THEEND = 7
-Play = 8 TempDialogueEnd = 9
-Cinematic = 10</t>
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12
+Clear = 13</t>
         </r>
       </text>
     </comment>
@@ -2878,7 +2902,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3464,7 +3488,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -7515,7 +7539,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -8012,7 +8036,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -9048,7 +9072,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B8BB39-A582-4C4F-A373-DB5DFB4B7715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8EA70E-55B3-4FA6-83A0-1A0C2AD2C624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="19" activeTab="28" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="1090" yWindow="1070" windowWidth="13460" windowHeight="10060" firstSheet="18" activeTab="19" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -1763,10 +1763,6 @@
     <t>203130_3</t>
   </si>
   <si>
-    <t>그럼 너는 앞으롸 어떻게 살아가고 싶어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>음…하루하루 살아가는게 일상이라 그런 생각해본적이 없네…글쎄…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2498,6 +2494,10 @@
   </si>
   <si>
     <t>NPC_Hawker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 너는 앞으로 어떻게 살아가고 싶어?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2965,7 +2965,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -3019,10 +3019,10 @@
         <v>203110</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3039,10 +3039,10 @@
         <v>203210</v>
       </c>
       <c r="E8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3070,7 +3070,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>78</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D9" t="s">
         <v>82</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
@@ -3320,7 +3320,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>91</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D8" t="s">
         <v>94</v>
@@ -3501,7 +3501,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -3552,7 +3552,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -3575,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3586,13 +3586,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>100</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D11" t="s">
         <v>106</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D12" t="s">
         <v>107</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D15" t="s">
         <v>110</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>114</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D8" t="s">
         <v>117</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
         <v>119</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D16" t="s">
         <v>125</v>
@@ -4102,7 +4102,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D10" t="s">
         <v>133</v>
@@ -4253,10 +4253,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -4282,7 +4282,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4423,10 +4423,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4440,7 +4440,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -4451,10 +4451,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4468,7 +4468,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4479,10 +4479,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4496,7 +4496,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4507,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4524,7 +4524,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4538,7 +4538,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4549,10 +4549,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4566,7 +4566,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4580,8 +4580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3690E5-FB9A-46DE-BB2A-94F3617E9F5B}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4654,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -4668,7 +4668,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4682,7 +4682,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4693,10 +4693,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" t="s">
         <v>371</v>
-      </c>
-      <c r="D9" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4710,7 +4710,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4724,7 +4724,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5012,7 +5012,7 @@
         <v>53</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>54</v>
@@ -5040,7 +5040,7 @@
         <v>53</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
         <v>54</v>
@@ -5068,7 +5068,7 @@
         <v>53</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
         <v>54</v>
@@ -5089,8 +5089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43B8F24-DE80-4BD0-80DE-E84894F6B388}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -5152,7 +5152,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -5236,7 +5236,7 @@
         <v>53</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -5250,7 +5250,7 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -5278,7 +5278,7 @@
         <v>53</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
@@ -5306,7 +5306,7 @@
         <v>53</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
@@ -5320,7 +5320,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -5334,7 +5334,7 @@
         <v>53</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
@@ -5404,7 +5404,7 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -5418,7 +5418,7 @@
         <v>53</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
@@ -5693,8 +5693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E55E97-244A-4E68-8F6E-EF23BD40578F}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -5762,7 +5762,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5776,7 +5776,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -5790,7 +5790,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5804,7 +5804,7 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5818,7 +5818,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5832,7 +5832,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5846,7 +5846,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5860,7 +5860,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5874,7 +5874,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5888,7 +5888,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5902,7 +5902,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5916,7 +5916,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5930,7 +5930,7 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5944,7 +5944,7 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5958,7 +5958,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5972,7 +5972,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5986,7 +5986,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6000,7 +6000,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6014,7 +6014,7 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6028,7 +6028,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6042,7 +6042,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6057,8 +6057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D087BC7-FCE0-4CA7-8288-D44E62861902}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -6070,7 +6070,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6126,7 +6126,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6140,7 +6140,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6154,7 +6154,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6168,7 +6168,7 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6182,7 +6182,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6196,7 +6196,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6210,7 +6210,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6224,7 +6224,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6232,13 +6232,13 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6252,7 +6252,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6266,7 +6266,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6274,13 +6274,13 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6294,7 +6294,7 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6302,13 +6302,13 @@
         <v>53</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6322,7 +6322,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6330,13 +6330,13 @@
         <v>53</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6350,7 +6350,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6364,7 +6364,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6372,13 +6372,13 @@
         <v>53</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6392,7 +6392,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6406,7 +6406,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6420,7 +6420,7 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6434,7 +6434,7 @@
         <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6442,13 +6442,13 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6462,7 +6462,7 @@
         <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6470,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6498,7 +6498,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6545,7 +6545,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6559,7 +6559,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6573,12 +6573,12 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6592,7 +6592,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6606,7 +6606,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6620,7 +6620,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6634,7 +6634,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6648,7 +6648,7 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6662,7 +6662,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6676,7 +6676,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -6692,7 +6692,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -6704,7 +6704,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6760,7 +6760,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6774,7 +6774,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1"/>
@@ -6803,7 +6803,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6859,7 +6859,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6873,7 +6873,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6887,7 +6887,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6901,7 +6901,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -6917,7 +6917,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -6929,7 +6929,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6985,7 +6985,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6999,7 +6999,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -7013,7 +7013,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7027,12 +7027,12 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7046,7 +7046,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7060,7 +7060,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7074,7 +7074,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7088,12 +7088,12 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7107,7 +7107,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7121,7 +7121,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -7136,8 +7136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCF49C2-6837-4246-9400-C38B3632841D}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -7149,7 +7149,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7205,7 +7205,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7213,13 +7213,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -7233,7 +7233,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7247,7 +7247,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7261,7 +7261,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7269,13 +7269,13 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7283,13 +7283,13 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7297,13 +7297,13 @@
         <v>53</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7317,7 +7317,7 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7331,7 +7331,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7345,7 +7345,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7359,7 +7359,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7373,7 +7373,7 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7387,7 +7387,7 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7401,7 +7401,7 @@
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7415,7 +7415,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7429,7 +7429,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7443,7 +7443,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7457,7 +7457,7 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7471,7 +7471,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7485,7 +7485,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7499,7 +7499,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7513,17 +7513,17 @@
         <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="D28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="D29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -7551,7 +7551,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -7602,7 +7602,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -7625,7 +7625,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7644,36 +7644,36 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7687,7 +7687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52AF8F0-2AA7-4AC1-BFA0-9028896261AC}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
@@ -7698,7 +7700,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7754,7 +7756,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7768,7 +7770,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -7782,7 +7784,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7796,7 +7798,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7810,7 +7812,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7824,7 +7826,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7838,7 +7840,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7852,7 +7854,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7866,7 +7868,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7880,7 +7882,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7894,7 +7896,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7908,7 +7910,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7922,7 +7924,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7936,7 +7938,7 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7950,7 +7952,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7964,7 +7966,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7978,7 +7980,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7992,7 +7994,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -8006,7 +8008,7 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8020,7 +8022,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -8035,8 +8037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CD2AAF-47ED-4B4E-BB2F-2E55BD40FEA4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -8048,7 +8050,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8104,7 +8106,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8118,7 +8120,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -8132,7 +8134,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8146,7 +8148,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8160,7 +8162,7 @@
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8174,7 +8176,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8188,7 +8190,7 @@
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8202,7 +8204,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8216,7 +8218,7 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8230,7 +8232,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8244,7 +8246,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -8551,7 +8553,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8610,7 +8612,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8942,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>69</v>
@@ -9085,7 +9087,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -9136,7 +9138,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -9159,7 +9161,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -9170,16 +9172,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" t="s">
         <v>342</v>
-      </c>
-      <c r="F6" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Slanted_Structure/Excel2Json/bin/ep02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8EA70E-55B3-4FA6-83A0-1A0C2AD2C624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D521016-2839-F14E-A7CD-5F1540B047B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1090" yWindow="1070" windowWidth="13460" windowHeight="10060" firstSheet="18" activeTab="19" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="13" activeTab="24" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -21,27 +21,25 @@
     <sheet name="203110_speat" sheetId="76" r:id="rId6"/>
     <sheet name="203120" sheetId="51" r:id="rId7"/>
     <sheet name="203120_1" sheetId="53" r:id="rId8"/>
-    <sheet name="203120_1_task" sheetId="72" r:id="rId9"/>
-    <sheet name="203120_1_Success" sheetId="56" r:id="rId10"/>
-    <sheet name="203120_1_Fail" sheetId="57" r:id="rId11"/>
-    <sheet name="203120_2_task" sheetId="73" r:id="rId12"/>
-    <sheet name="203120_2" sheetId="54" r:id="rId13"/>
-    <sheet name="203120_2_after" sheetId="58" r:id="rId14"/>
-    <sheet name="203120_3_first" sheetId="75" r:id="rId15"/>
-    <sheet name="203120_3_default" sheetId="74" r:id="rId16"/>
-    <sheet name="203120_3" sheetId="55" r:id="rId17"/>
-    <sheet name="203130_1" sheetId="52" r:id="rId18"/>
-    <sheet name="203130_2" sheetId="59" r:id="rId19"/>
-    <sheet name="203130_3" sheetId="60" r:id="rId20"/>
-    <sheet name="203130_4" sheetId="61" r:id="rId21"/>
-    <sheet name="204110" sheetId="62" r:id="rId22"/>
-    <sheet name="204120" sheetId="63" r:id="rId23"/>
-    <sheet name="204130_1" sheetId="64" r:id="rId24"/>
-    <sheet name="204130_2" sheetId="65" r:id="rId25"/>
-    <sheet name="204130_3" sheetId="66" r:id="rId26"/>
-    <sheet name="204130_choice" sheetId="67" r:id="rId27"/>
-    <sheet name="204130_3_1" sheetId="70" r:id="rId28"/>
-    <sheet name="204130_3_2" sheetId="71" r:id="rId29"/>
+    <sheet name="203120_1_Success" sheetId="56" r:id="rId9"/>
+    <sheet name="203120_1_Fail" sheetId="57" r:id="rId10"/>
+    <sheet name="203120_2" sheetId="54" r:id="rId11"/>
+    <sheet name="203120_2_after" sheetId="58" r:id="rId12"/>
+    <sheet name="203120_3_first" sheetId="75" r:id="rId13"/>
+    <sheet name="203120_3_default" sheetId="74" r:id="rId14"/>
+    <sheet name="203120_3" sheetId="55" r:id="rId15"/>
+    <sheet name="203130_1" sheetId="52" r:id="rId16"/>
+    <sheet name="203130_2" sheetId="59" r:id="rId17"/>
+    <sheet name="203130_3" sheetId="60" r:id="rId18"/>
+    <sheet name="203130_4" sheetId="61" r:id="rId19"/>
+    <sheet name="204110" sheetId="62" r:id="rId20"/>
+    <sheet name="204120" sheetId="63" r:id="rId21"/>
+    <sheet name="204130_1" sheetId="64" r:id="rId22"/>
+    <sheet name="204130_2" sheetId="65" r:id="rId23"/>
+    <sheet name="204130_3" sheetId="66" r:id="rId24"/>
+    <sheet name="204130_choice" sheetId="67" r:id="rId25"/>
+    <sheet name="204130_3_1" sheetId="70" r:id="rId26"/>
+    <sheet name="204130_3_2" sheetId="71" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,10 +99,10 @@
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>최선</author>
+    <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E84691A2-867D-40FB-A49F-554B028EBF12}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4CCDAC47-ED97-4AAE-8705-2AD714198DEA}">
       <text>
         <r>
           <rPr>
@@ -114,20 +112,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NONE = 0
-ANIMATION = 1
-DIALOGUE = 2
-TEMP = 3
-TEMPEND = 4
-TaskReset = 5
-NEW = 6
-THEEND = 7
-Play = 8
-FadeIn = 9
-FadeOut=10
-Cinematic = 11
-EndingChoice=12
-Clear = 13</t>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -138,10 +132,10 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>최선</author>
+    <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6F468EAC-E190-4C94-A89C-C7E06A9A04D8}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D31D2EB7-ED8D-4D10-9F47-48412535C639}">
       <text>
         <r>
           <rPr>
@@ -174,7 +168,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4CCDAC47-ED97-4AAE-8705-2AD714198DEA}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{0BD03A28-E567-4B23-B8F0-0DD4F21CC168}">
       <text>
         <r>
           <rPr>
@@ -207,7 +201,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D31D2EB7-ED8D-4D10-9F47-48412535C639}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{AD8160A3-7D96-4F86-8321-EED22327D14D}">
       <text>
         <r>
           <rPr>
@@ -240,7 +234,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{0BD03A28-E567-4B23-B8F0-0DD4F21CC168}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A1B92BDB-3545-4F8D-819F-2EE1A24216A6}">
       <text>
         <r>
           <rPr>
@@ -273,7 +267,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{AD8160A3-7D96-4F86-8321-EED22327D14D}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{24021271-C5ED-4268-8159-EAF36213B98D}">
       <text>
         <r>
           <rPr>
@@ -306,7 +300,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A1B92BDB-3545-4F8D-819F-2EE1A24216A6}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{344EE750-A6F7-4EE0-9D37-627DA48683B0}">
       <text>
         <r>
           <rPr>
@@ -339,7 +333,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{24021271-C5ED-4268-8159-EAF36213B98D}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4E92DE45-2719-4A5E-913C-9943110E53DD}">
       <text>
         <r>
           <rPr>
@@ -372,7 +366,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{344EE750-A6F7-4EE0-9D37-627DA48683B0}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{FDB2BD71-A357-48DE-BFB1-45106A1AEC5A}">
       <text>
         <r>
           <rPr>
@@ -400,106 +394,6 @@
 </file>
 
 <file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4E92DE45-2719-4A5E-913C-9943110E53DD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{370B9A26-3BD6-4AD8-BCD9-2A6F57F4E96C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{FDB2BD71-A357-48DE-BFB1-45106A1AEC5A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -712,7 +606,41 @@
 </comments>
 </file>
 
-<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{370B9A26-3BD6-4AD8-BCD9-2A6F57F4E96C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -745,7 +673,7 @@
 </comments>
 </file>
 
-<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -982,7 +910,7 @@
     <author>최선</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{67077DB0-C738-4E73-A0AF-F9A713DF8807}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6F468EAC-E190-4C94-A89C-C7E06A9A04D8}">
       <text>
         <r>
           <rPr>
@@ -992,20 +920,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NONE = 0
-ANIMATION = 1
-DIALOGUE = 2
-TEMP = 3
-TEMPEND = 4
-TaskReset = 5
-NEW = 6
-THEEND = 7
-Play = 8
-FadeIn = 9
-FadeOut=10
-Cinematic = 11
-EndingChoice=12
-Clear = 13</t>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -1014,7 +938,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="370">
   <si>
     <t>이름</t>
   </si>
@@ -2344,40 +2268,6 @@
   </si>
   <si>
     <t>203120_1_Fail</t>
-  </si>
-  <si>
-    <t>203120_1_task</t>
-  </si>
-  <si>
-    <t>Dalgona Game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/203120_1_Success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/203120_1_Fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/203120_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>203120_2_task</t>
-  </si>
-  <si>
-    <t>dialogue_ep2/203120_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IceCream Game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/203120_2_after</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>taskContentType</t>
@@ -2905,11 +2795,11 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2965,7 +2855,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -3054,23 +2944,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B0F605-91DC-4F85-B625-36F288777449}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13AF488-B229-4962-91D0-7ED403EE7FEC}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3123,24 +3013,24 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -3148,13 +3038,13 @@
         <v>53</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3165,24 +3055,24 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>376</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3190,111 +3080,41 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>376</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3304,23 +3124,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13AF488-B229-4962-91D0-7ED403EE7FEC}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099ACD21-63EA-480D-97F3-C5558D0EDE50}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>338</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3367,30 +3187,30 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -3398,27 +3218,27 @@
         <v>53</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>376</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3426,13 +3246,13 @@
         <v>53</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3440,41 +3260,93 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>367</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>367</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3484,143 +3356,273 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72847EAD-B753-4472-896A-A550A32270AB}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24852A00-72DD-47E2-936F-0F4D09503E57}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
-    <col min="5" max="5" width="26.9140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D5">
+        <v>367</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D6">
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>347</v>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>367</v>
+      </c>
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099ACD21-63EA-480D-97F3-C5558D0EDE50}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D87545E-B9F6-4C60-92B6-6C388F757FC7}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3667,44 +3669,44 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3712,13 +3714,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3726,107 +3728,55 @@
         <v>53</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>368</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>376</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>376</v>
-      </c>
-      <c r="D15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3836,23 +3786,23 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24852A00-72DD-47E2-936F-0F4D09503E57}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F233AD96-926A-4AA3-8DB3-46A95395429A}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3899,185 +3849,23 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>376</v>
-      </c>
-      <c r="D8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>126</v>
-      </c>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4086,274 +3874,6 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D87545E-B9F6-4C60-92B6-6C388F757FC7}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>377</v>
-      </c>
-      <c r="D10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F233AD96-926A-4AA3-8DB3-46A95395429A}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="D7" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7146A20D-72BA-488F-B62C-9A9E51DA7DD5}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -4361,11 +3881,11 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4423,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D5" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4440,7 +3960,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -4451,10 +3971,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4468,7 +3988,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4479,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4496,7 +4016,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4507,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D11" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4524,7 +4044,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4538,7 +4058,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4549,10 +4069,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4566,7 +4086,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -4576,19 +4096,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3690E5-FB9A-46DE-BB2A-94F3617E9F5B}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="88.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4640,35 +4160,553 @@
     </row>
     <row r="5" spans="1:4">
       <c r="D5" t="s">
-        <v>373</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43B8F24-DE80-4BD0-80DE-E84894F6B388}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>367</v>
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>368</v>
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4682,21 +4720,21 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>369</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>370</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4704,41 +4742,41 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>372</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>374</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4752,7 +4790,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4760,13 +4798,13 @@
         <v>53</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4780,7 +4818,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4788,13 +4826,13 @@
         <v>53</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4802,27 +4840,27 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4836,7 +4874,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4850,7 +4888,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4858,13 +4896,13 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4878,7 +4916,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4886,13 +4924,13 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4900,13 +4938,13 @@
         <v>53</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4914,13 +4952,13 @@
         <v>7</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4934,7 +4972,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4942,13 +4980,13 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4956,13 +4994,13 @@
         <v>53</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4976,7 +5014,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4984,13 +5022,13 @@
         <v>53</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4998,13 +5036,13 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5012,69 +5050,377 @@
         <v>53</v>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E55E97-244A-4E68-8F6E-EF23BD40578F}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" t="s">
-        <v>159</v>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5086,23 +5432,23 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43B8F24-DE80-4BD0-80DE-E84894F6B388}">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D087BC7-FCE0-4CA7-8288-D44E62861902}">
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B5" sqref="B5:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="88.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5158,7 +5504,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5172,35 +5518,35 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5208,55 +5554,55 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5264,13 +5610,13 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5278,13 +5624,13 @@
         <v>53</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5298,35 +5644,35 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5334,13 +5680,13 @@
         <v>53</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5354,7 +5700,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5362,13 +5708,13 @@
         <v>53</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5382,161 +5728,127 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5555,11 +5867,11 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.58203125" customWidth="1"/>
-    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+    <col min="4" max="4" width="63.5" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5623,7 +5935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="18">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5690,23 +6002,23 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E55E97-244A-4E68-8F6E-EF23BD40578F}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C438B-CF27-4DC1-A8BD-65104AA75AA2}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="88.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5752,59 +6064,41 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
       <c r="D5" t="s">
-        <v>378</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5812,13 +6106,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5832,7 +6126,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5840,13 +6134,13 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5860,21 +6154,21 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5882,13 +6176,13 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5896,153 +6190,13 @@
         <v>53</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -6054,23 +6208,23 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D087BC7-FCE0-4CA7-8288-D44E62861902}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55FC358-28FE-4422-9C00-DD5C708B704C}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="88.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6117,362 +6271,33 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>238</v>
-      </c>
-    </row>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6482,23 +6307,23 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C438B-CF27-4DC1-A8BD-65104AA75AA2}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D4C81D-2B0C-4688-8FA1-5D8D899ADC7E}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="88.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6544,8 +6369,17 @@
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6559,7 +6393,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6573,110 +6407,21 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
       <c r="D8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -6688,23 +6433,23 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55FC358-28FE-4422-9C00-DD5C708B704C}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B824D30-903D-4FAA-9CFC-53AFFAAC0079}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="88.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6760,7 +6505,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6774,10 +6519,131 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6787,23 +6653,23 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D4C81D-2B0C-4688-8FA1-5D8D899ADC7E}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCF49C2-6837-4246-9400-C38B3632841D}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="88.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6859,7 +6725,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6867,13 +6733,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6887,7 +6753,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6901,7 +6767,283 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="D28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="D29" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -6913,23 +7055,172 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B824D30-903D-4FAA-9CFC-53AFFAAC0079}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52AF8F0-2AA7-4AC1-BFA0-9028896261AC}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="88.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>258</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6976,16 +7267,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6993,13 +7284,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -7007,13 +7298,13 @@
         <v>53</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7021,18 +7312,27 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7040,13 +7340,13 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7054,13 +7354,13 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7068,312 +7368,83 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
       <c r="D14" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCF49C2-6837-4246-9400-C38B3632841D}">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="88.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7381,27 +7452,27 @@
         <v>53</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7409,27 +7480,27 @@
         <v>53</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7437,13 +7508,13 @@
         <v>53</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7451,79 +7522,27 @@
         <v>53</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="D28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="D29" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -7535,505 +7554,6 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>350</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52AF8F0-2AA7-4AC1-BFA0-9028896261AC}">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="88.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>323</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CD2AAF-47ED-4B4E-BB2F-2E55BD40FEA4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -8041,11 +7561,11 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="88.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8265,11 +7785,11 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="25.4140625" customWidth="1"/>
-    <col min="4" max="4" width="39.08203125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8333,7 +7853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34">
+    <row r="6" spans="1:4" ht="36">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8377,11 +7897,11 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8445,7 +7965,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8488,11 +8008,11 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8603,16 +8123,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8771,11 +8291,11 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8839,7 +8359,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34">
+    <row r="6" spans="1:4" ht="36">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8882,11 +8402,11 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8944,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34">
+    <row r="6" spans="1:4" ht="36">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9070,124 +8590,251 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974070FC-5719-4468-BBEA-5A9091DC4181}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B0F605-91DC-4F85-B625-36F288777449}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="41.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" customWidth="1"/>
-    <col min="3" max="3" width="35.08203125" customWidth="1"/>
-    <col min="5" max="5" width="26.9140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D5">
+        <v>367</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D6">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>341</v>
-      </c>
-      <c r="F6" t="s">
-        <v>342</v>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel2Json/bin/ep02/ep02_3.xlsx
+++ b/Excel2Json/bin/ep02/ep02_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Slanted_Structure/Excel2Json/bin/ep02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D521016-2839-F14E-A7CD-5F1540B047B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43506F85-0501-4123-9945-3AA3C04BCF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="13" activeTab="24" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="6" activeTab="12" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="203010_choice" sheetId="43" r:id="rId1"/>
@@ -24,22 +24,23 @@
     <sheet name="203120_1_Success" sheetId="56" r:id="rId9"/>
     <sheet name="203120_1_Fail" sheetId="57" r:id="rId10"/>
     <sheet name="203120_2" sheetId="54" r:id="rId11"/>
-    <sheet name="203120_2_after" sheetId="58" r:id="rId12"/>
-    <sheet name="203120_3_first" sheetId="75" r:id="rId13"/>
-    <sheet name="203120_3_default" sheetId="74" r:id="rId14"/>
-    <sheet name="203120_3" sheetId="55" r:id="rId15"/>
-    <sheet name="203130_1" sheetId="52" r:id="rId16"/>
-    <sheet name="203130_2" sheetId="59" r:id="rId17"/>
-    <sheet name="203130_3" sheetId="60" r:id="rId18"/>
-    <sheet name="203130_4" sheetId="61" r:id="rId19"/>
-    <sheet name="204110" sheetId="62" r:id="rId20"/>
-    <sheet name="204120" sheetId="63" r:id="rId21"/>
-    <sheet name="204130_1" sheetId="64" r:id="rId22"/>
-    <sheet name="204130_2" sheetId="65" r:id="rId23"/>
-    <sheet name="204130_3" sheetId="66" r:id="rId24"/>
-    <sheet name="204130_choice" sheetId="67" r:id="rId25"/>
-    <sheet name="204130_3_1" sheetId="70" r:id="rId26"/>
-    <sheet name="204130_3_2" sheetId="71" r:id="rId27"/>
+    <sheet name="203120_2_Sucess" sheetId="77" r:id="rId12"/>
+    <sheet name="203120_2_Fail" sheetId="58" r:id="rId13"/>
+    <sheet name="203120_3_first" sheetId="75" r:id="rId14"/>
+    <sheet name="203120_3_default" sheetId="74" r:id="rId15"/>
+    <sheet name="203120_3" sheetId="55" r:id="rId16"/>
+    <sheet name="203130_1" sheetId="52" r:id="rId17"/>
+    <sheet name="203130_2" sheetId="59" r:id="rId18"/>
+    <sheet name="203130_3" sheetId="60" r:id="rId19"/>
+    <sheet name="203130_4" sheetId="61" r:id="rId20"/>
+    <sheet name="204110" sheetId="62" r:id="rId21"/>
+    <sheet name="204120" sheetId="63" r:id="rId22"/>
+    <sheet name="204130_1" sheetId="64" r:id="rId23"/>
+    <sheet name="204130_2" sheetId="65" r:id="rId24"/>
+    <sheet name="204130_3" sheetId="66" r:id="rId25"/>
+    <sheet name="204130_choice" sheetId="67" r:id="rId26"/>
+    <sheet name="204130_3_1" sheetId="70" r:id="rId27"/>
+    <sheet name="204130_3_2" sheetId="71" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -99,6 +100,74 @@
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{0DC297FB-9B8A-40B0-9357-193C92E03D88}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6F468EAC-E190-4C94-A89C-C7E06A9A04D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>훠이</author>
   </authors>
   <commentList>
@@ -129,7 +198,7 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -162,7 +231,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -195,7 +264,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -228,7 +297,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -261,7 +330,7 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -294,7 +363,7 @@
 </comments>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -327,7 +396,7 @@
 </comments>
 </file>
 
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -360,7 +429,41 @@
 </comments>
 </file>
 
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{370B9A26-3BD6-4AD8-BCD9-2A6F57F4E96C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -393,7 +496,7 @@
 </comments>
 </file>
 
-<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
@@ -606,41 +709,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{370B9A26-3BD6-4AD8-BCD9-2A6F57F4E96C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -673,7 +742,7 @@
 </comments>
 </file>
 
-<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -910,7 +979,7 @@
     <author>최선</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6F468EAC-E190-4C94-A89C-C7E06A9A04D8}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{5F85639E-88CA-4626-8A09-8268C298B135}">
       <text>
         <r>
           <rPr>
@@ -929,7 +998,9 @@
 6: Panic
 7: Suspicion
 8: Fear
-9: Curious</t>
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
         </r>
       </text>
     </comment>
@@ -938,7 +1009,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="376">
   <si>
     <t>이름</t>
   </si>
@@ -1379,9 +1450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>203120_2_after</t>
-  </si>
-  <si>
     <t>하하하! 저의 10여년간의 실력을 우습게 보면 안되죠~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2267,127 +2335,154 @@
     <t>203120_1_Success</t>
   </si>
   <si>
+    <t>taskContentType</t>
+  </si>
+  <si>
+    <t>204130_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/204130_3_1</t>
+  </si>
+  <si>
+    <t>dialogue_ep2/204130_3_2</t>
+  </si>
+  <si>
+    <t>203120_3_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203120_3_first</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗, 지금은 다른 일좀 하느라 그런데 다른 곳좀 구경하고 오시게나~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장 구경은 잘하셨는가? 별 볼거 없지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니에요~ 재밌게 구경하고 있었어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 다행이구먼~시장 좀 구경좀 하고 오게나~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>껄껄, 그러면 다행이고. 이번엔 필요한 건 딱히 없고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음, 당장은 없긴 한데 여행 중에 생기면 다시 또 들릴께요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 그래, 이번에는 친구랑 같이 왔네? 어떻게 만났는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 식당에서 우연히 만나게 되서 오늘 같이 놀고 있었어요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇구만, 가만보니… 이 친구…잘 못보던 친구 같네..? 내가 여기 사람들 웬만하면 다 아는데 말이지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(앗…스핏…뭔가 두려운 표정을 짓고 있잖아…? 이런 표정은 처음 봤는데…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠…자네 무슨 일 하고 지내는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗, 저희 갑자기 급하게 생긴 일이 있어서요! 이만…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏, 아까는 괜찮았어…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐가…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니…아까 상인 아저씨가 널 추궁하듯이 물어보는데… 너가 뭔가… 무서워하는 표정이길래…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아… 아냐… 괜찮아…! 그냥 낯가려서 그랬어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(낯가리는 성격은 아닌 거 같은데…)아무튼…괜찮다면 다행이고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘은 맥주를 마시면서 이런저런 도란도란 이야기를 나누고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 근데 스핏, 너는 꿈이 뭐야??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203110_speat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Citizen_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Hawker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 너는 앞으로 어떻게 살아가고 싶어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203120_2_Fail</t>
+  </si>
+  <si>
+    <t>203120_2_Sucess</t>
+  </si>
+  <si>
+    <t>아 진짜요? 근데 그럴만해요. 저도 잡는데 애먹었으니까…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제까지 지나가다 보기만 했는데 나도 이렇게 잘잡는 건 처음 본다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세, 세상에… 내 10년 장사하는 동안 이렇게 잘 잡는 손님은 처음 보네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼, 맛있게 드시고 즐거운 여행되세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감사합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>203120_1_Fail</t>
-  </si>
-  <si>
-    <t>taskContentType</t>
-  </si>
-  <si>
-    <t>204130_3_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/204130_3_1</t>
-  </si>
-  <si>
-    <t>dialogue_ep2/204130_3_2</t>
-  </si>
-  <si>
-    <t>203120_3_default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>203120_3_first</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앗, 지금은 다른 일좀 하느라 그런데 다른 곳좀 구경하고 오시게나~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시장 구경은 잘하셨는가? 별 볼거 없지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니에요~ 재밌게 구경하고 있었어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러면 다행이구먼~시장 좀 구경좀 하고 오게나~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>껄껄, 그러면 다행이고. 이번엔 필요한 건 딱히 없고?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음, 당장은 없긴 한데 여행 중에 생기면 다시 또 들릴께요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 그래, 이번에는 친구랑 같이 왔네? 어떻게 만났는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 식당에서 우연히 만나게 되서 오늘 같이 놀고 있었어요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇구만, 가만보니… 이 친구…잘 못보던 친구 같네..? 내가 여기 사람들 웬만하면 다 아는데 말이지…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(앗…스핏…뭔가 두려운 표정을 짓고 있잖아…? 이런 표정은 처음 봤는데…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흠…자네 무슨 일 하고 지내는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앗, 저희 갑자기 급하게 생긴 일이 있어서요! 이만…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏, 아까는 괜찮았어…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐가…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니…아까 상인 아저씨가 널 추궁하듯이 물어보는데… 너가 뭔가… 무서워하는 표정이길래…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아… 아냐… 괜찮아…! 그냥 낯가려서 그랬어…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(낯가리는 성격은 아닌 거 같은데…)아무튼…괜찮다면 다행이고…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둘은 맥주를 마시면서 이런저런 도란도란 이야기를 나누고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 근데 스핏, 너는 꿈이 뭐야??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>203110_speat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_Citizen_M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_Hawker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 너는 앞으로 어떻게 살아가고 싶어?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2795,7 +2890,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -2855,7 +2950,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -2909,10 +3004,10 @@
         <v>203110</v>
       </c>
       <c r="E7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2929,10 +3024,10 @@
         <v>203210</v>
       </c>
       <c r="E8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2948,10 +3043,10 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -2960,7 +3055,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3013,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3055,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D8" t="s">
         <v>94</v>
@@ -3128,10 +3223,10 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -3193,13 +3288,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3277,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D11" t="s">
         <v>106</v>
@@ -3291,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D12" t="s">
         <v>107</v>
@@ -3324,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D15" t="s">
         <v>110</v>
@@ -3356,14 +3451,154 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24852A00-72DD-47E2-936F-0F4D09503E57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AC8A42-379A-4129-A760-5EA86DC72BFA}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24852A00-72DD-47E2-936F-0F4D09503E57}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -3372,7 +3607,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3425,13 +3660,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3442,7 +3677,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -3456,7 +3691,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3467,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3484,7 +3719,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3495,10 +3730,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3506,13 +3741,13 @@
         <v>53</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3520,13 +3755,13 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3540,7 +3775,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3554,7 +3789,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3568,7 +3803,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3579,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3590,22 +3825,23 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D87545E-B9F6-4C60-92B6-6C388F757FC7}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -3613,7 +3849,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -3622,7 +3858,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3678,10 +3914,10 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -3692,7 +3928,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -3706,7 +3942,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3720,7 +3956,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3734,21 +3970,21 @@
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" t="s">
         <v>132</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>368</v>
-      </c>
-      <c r="D10" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3762,21 +3998,21 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3785,7 +4021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F233AD96-926A-4AA3-8DB3-46A95395429A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3793,7 +4029,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -3802,7 +4038,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3849,16 +4085,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3873,7 +4109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7146A20D-72BA-488F-B62C-9A9E51DA7DD5}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -3881,7 +4117,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -3937,16 +4173,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3960,21 +4196,21 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3988,21 +4224,21 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4016,21 +4252,21 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4044,7 +4280,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4058,21 +4294,21 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4086,7 +4322,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -4096,7 +4332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3690E5-FB9A-46DE-BB2A-94F3617E9F5B}">
   <dimension ref="A1:D36"/>
   <sheetViews>
@@ -4104,516 +4340,7 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43B8F24-DE80-4BD0-80DE-E84894F6B388}">
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -4668,45 +4395,36 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>161</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>162</v>
+        <v>54</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4720,21 +4438,21 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>359</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4742,41 +4460,41 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4790,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4798,13 +4516,13 @@
         <v>53</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4818,7 +4536,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4826,13 +4544,13 @@
         <v>53</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4840,27 +4558,27 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4874,7 +4592,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4888,7 +4606,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4896,13 +4614,13 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4916,7 +4634,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4924,13 +4642,13 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4938,13 +4656,13 @@
         <v>53</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4952,13 +4670,13 @@
         <v>7</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4972,7 +4690,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4980,13 +4698,13 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4994,13 +4712,13 @@
         <v>53</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5014,7 +4732,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5022,13 +4740,13 @@
         <v>53</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5036,13 +4754,13 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5050,13 +4768,69 @@
         <v>53</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5068,14 +4842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E55E97-244A-4E68-8F6E-EF23BD40578F}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43B8F24-DE80-4BD0-80DE-E84894F6B388}">
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -5084,7 +4858,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5134,13 +4908,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>369</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5154,7 +4928,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -5168,21 +4942,21 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5196,49 +4970,49 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5246,41 +5020,41 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5288,27 +5062,27 @@
         <v>53</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5316,13 +5090,13 @@
         <v>53</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5330,13 +5104,13 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5350,77 +5124,175 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5432,14 +5304,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D087BC7-FCE0-4CA7-8288-D44E62861902}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E55E97-244A-4E68-8F6E-EF23BD40578F}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B29"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -5448,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5498,13 +5370,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5518,21 +5390,21 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5546,7 +5418,7 @@
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5554,13 +5426,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5574,7 +5446,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5588,7 +5460,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5596,13 +5468,13 @@
         <v>53</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5616,49 +5488,49 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5666,13 +5538,13 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5680,13 +5552,13 @@
         <v>53</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5694,13 +5566,13 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5708,27 +5580,27 @@
         <v>53</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5736,13 +5608,13 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5750,13 +5622,13 @@
         <v>53</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5764,13 +5636,13 @@
         <v>7</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5784,71 +5656,7 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5867,7 +5675,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="63.5" customWidth="1"/>
@@ -5935,7 +5743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6002,14 +5810,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C438B-CF27-4DC1-A8BD-65104AA75AA2}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D087BC7-FCE0-4CA7-8288-D44E62861902}">
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="B5" sqref="B5:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -6018,7 +5826,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6064,22 +5872,31 @@
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6093,12 +5910,21 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6106,13 +5932,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6126,7 +5952,7 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6134,13 +5960,13 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6148,55 +5974,259 @@
         <v>53</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6208,6 +6238,212 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C438B-CF27-4DC1-A8BD-65104AA75AA2}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55FC358-28FE-4422-9C00-DD5C708B704C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -6215,7 +6451,232 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D4C81D-2B0C-4688-8FA1-5D8D899ADC7E}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B824D30-903D-4FAA-9CFC-53AFFAAC0079}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -6280,7 +6741,7 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6294,106 +6755,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D4C81D-2B0C-4688-8FA1-5D8D899ADC7E}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -6407,7 +6769,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6415,144 +6777,18 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B824D30-903D-4FAA-9CFC-53AFFAAC0079}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6566,7 +6802,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6580,7 +6816,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6594,7 +6830,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6608,12 +6844,12 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6627,7 +6863,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6641,409 +6877,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCF49C2-6837-4246-9400-C38B3632841D}">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="D28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="D29" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -7055,14 +6889,416 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCF49C2-6837-4246-9400-C38B3632841D}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="D28" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="D29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F61BC1-D4B8-4F4E-B5AE-B658C7B3E655}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -7071,7 +7307,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -7122,7 +7358,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -7145,7 +7381,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7164,36 +7400,36 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -7203,7 +7439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52AF8F0-2AA7-4AC1-BFA0-9028896261AC}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -7211,7 +7447,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -7220,7 +7456,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7276,7 +7512,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7290,7 +7526,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -7304,7 +7540,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7318,7 +7554,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7332,7 +7568,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7346,7 +7582,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7360,7 +7596,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7374,7 +7610,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7388,7 +7624,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7402,7 +7638,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7416,7 +7652,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7430,7 +7666,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7444,7 +7680,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7458,7 +7694,7 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7472,7 +7708,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7486,7 +7722,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7500,7 +7736,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7514,7 +7750,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7528,7 +7764,7 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7542,7 +7778,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -7553,7 +7789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CD2AAF-47ED-4B4E-BB2F-2E55BD40FEA4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -7561,7 +7797,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -7570,7 +7806,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7626,7 +7862,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7640,7 +7876,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1">
@@ -7654,7 +7890,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7668,7 +7904,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7682,7 +7918,7 @@
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7696,7 +7932,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7710,7 +7946,7 @@
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7724,7 +7960,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7738,7 +7974,7 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7752,7 +7988,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7766,7 +8002,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -7785,7 +8021,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
@@ -7853,7 +8089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7897,7 +8133,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -7965,7 +8201,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8008,7 +8244,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -8073,7 +8309,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8123,7 +8359,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -8132,7 +8368,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8291,7 +8527,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -8359,7 +8595,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8399,10 +8635,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -8464,13 +8700,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8597,7 +8833,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -8606,7 +8842,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8659,13 +8895,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8701,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
@@ -8715,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D9" t="s">
         <v>82</v>
@@ -8743,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
